--- a/data/hotels_by_city/Houston/Houston_shard_217.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_217.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="370">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d107825-Reviews-Extended_Stay_America_Houston_Greenspoint-Houston_Texas.html</t>
   </si>
   <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Extended-Stay-America-Houston-Greenspoint.h104201.Hotel-Information?chkin=7%2F15%2F2018&amp;chkout=7%2F16%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1530891821890&amp;cancellable=false&amp;regionId=1503&amp;vip=false&amp;c=208cb77b-1050-47bd-bfb4-0637d2e5f1ef&amp;mctc=9&amp;exp_dp=61.73&amp;exp_ts=1530891828841&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,994 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r567381238-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107825</t>
+  </si>
+  <si>
+    <t>567381238</t>
+  </si>
+  <si>
+    <t>03/18/2018</t>
+  </si>
+  <si>
+    <t>Upgrade is needed</t>
+  </si>
+  <si>
+    <t>Started in room 207, did video walk through, shared with front desk and was reassigned to 122, same problems, it was late and I was tired just wanted to shower and sleep. Saturday morning I checked out even though I was charged for Saturday night any way. There was no shuttle to take me to airport to catch 6am flight Sunday morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded March 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2018</t>
+  </si>
+  <si>
+    <t>Started in room 207, did video walk through, shared with front desk and was reassigned to 122, same problems, it was late and I was tired just wanted to shower and sleep. Saturday morning I checked out even though I was charged for Saturday night any way. There was no shuttle to take me to airport to catch 6am flight Sunday morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r559350820-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>559350820</t>
+  </si>
+  <si>
+    <t>02/09/2018</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>have stayed at many hotel but this by far was the best hotel I have ever stayed at. I don't recall everyone's name so i will just desribe them...when we first checked in a heavy set African American male checked us in. He was very polite and had us checked in less than 2 minutes..The room was clean and had everything we needed. While there the young Hispanic security guard was in his job...i watched as he made his rounds around the property every 15-30 min...At one point he even asked if I was registered which I replied yes and he looked me up on his sheet and confirmed...we decided to stay another day and when I went to the front desk I was greeted by a young Caucasian male with a beard...he was polite and helpful as well...i will wrap this up. Upon checking out of the hotel an older middle eastern male checked us out and just like everyone else he was polite. Very diverse workplace and everyone was outstanding. Will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded February 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2018</t>
+  </si>
+  <si>
+    <t>have stayed at many hotel but this by far was the best hotel I have ever stayed at. I don't recall everyone's name so i will just desribe them...when we first checked in a heavy set African American male checked us in. He was very polite and had us checked in less than 2 minutes..The room was clean and had everything we needed. While there the young Hispanic security guard was in his job...i watched as he made his rounds around the property every 15-30 min...At one point he even asked if I was registered which I replied yes and he looked me up on his sheet and confirmed...we decided to stay another day and when I went to the front desk I was greeted by a young Caucasian male with a beard...he was polite and helpful as well...i will wrap this up. Upon checking out of the hotel an older middle eastern male checked us out and just like everyone else he was polite. Very diverse workplace and everyone was outstanding. Will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r548399226-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>548399226</t>
+  </si>
+  <si>
+    <t>12/21/2017</t>
+  </si>
+  <si>
+    <t>Excelent Houston Vacations</t>
+  </si>
+  <si>
+    <t>We had a Family vacation and it was very good. The hotel is very nice, about 20 to 30 min drive from all trip places. It have amenities that helps with your stay. I will definitely recommend and go again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded December 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2017</t>
+  </si>
+  <si>
+    <t>We had a Family vacation and it was very good. The hotel is very nice, about 20 to 30 min drive from all trip places. It have amenities that helps with your stay. I will definitely recommend and go again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r509325456-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>509325456</t>
+  </si>
+  <si>
+    <t>08/06/2017</t>
+  </si>
+  <si>
+    <t>Long Term</t>
+  </si>
+  <si>
+    <t>I was there for 6 months.  Excellent staff.  Very friendly. I would recommend this hotel to anyone stat8ng long term in Houston.   There is plenty of restaraunts nearby, and plenty to do in the area.  Otis close to the airport and located near the interstate for easy travel in and out of the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded August 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2017</t>
+  </si>
+  <si>
+    <t>I was there for 6 months.  Excellent staff.  Very friendly. I would recommend this hotel to anyone stat8ng long term in Houston.   There is plenty of restaraunts nearby, and plenty to do in the area.  Otis close to the airport and located near the interstate for easy travel in and out of the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r507890828-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>507890828</t>
+  </si>
+  <si>
+    <t>08/01/2017</t>
+  </si>
+  <si>
+    <t>Unsafe and Unfair</t>
+  </si>
+  <si>
+    <t>This was the worst hotel experience that I have ever had.  This is not a hotel...this is an "apartment" style living.  The front desk clerk told my group that this is an apartment and not really a hotel.  She told us that her longest "resident" has been a guest since 2004.  This place does a towel exchange-turn in your dirty towels at the front desk, before you are given clean towels.  We were told this keeps the residents from stealing towels through accountability.   One of the rooms was missing toliet paper.  The smell of drug smoke was evident in one of the rooms.  However the deal breaker was when the front desk clerk told us to "keep up" with our children because men in this building snatch children.  She stated this with a sense of urgency.  We checked out, since we (3 women) were traveling with 9 children on a vacation roadtrip.  Extended stay and hotels.com will not refund our money!  Their is so much more that I could say but just the memory of this expericene has me upset.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded August 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2017</t>
+  </si>
+  <si>
+    <t>This was the worst hotel experience that I have ever had.  This is not a hotel...this is an "apartment" style living.  The front desk clerk told my group that this is an apartment and not really a hotel.  She told us that her longest "resident" has been a guest since 2004.  This place does a towel exchange-turn in your dirty towels at the front desk, before you are given clean towels.  We were told this keeps the residents from stealing towels through accountability.   One of the rooms was missing toliet paper.  The smell of drug smoke was evident in one of the rooms.  However the deal breaker was when the front desk clerk told us to "keep up" with our children because men in this building snatch children.  She stated this with a sense of urgency.  We checked out, since we (3 women) were traveling with 9 children on a vacation roadtrip.  Extended stay and hotels.com will not refund our money!  Their is so much more that I could say but just the memory of this expericene has me upset.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r504463043-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>504463043</t>
+  </si>
+  <si>
+    <t>07/22/2017</t>
+  </si>
+  <si>
+    <t>Husam is a bigot and racist!!!</t>
+  </si>
+  <si>
+    <t>Husambis a bigot and racist who doesn't like women. Sam said I couldn't have towels because he didn't like me. Shani said I couldn't come ask for anything because she didn't like me. These people have absolutely no training and no professionalism. They are running a cess pool, not a hotel. If you want to be discriminated against and disrespected on a daily basis, by all means stay at this property. Shani is ALAWAYS stuffing her face and walking around barefoot. Sam should not be managing a hotel. He has zero problem resolution skills and has not been properly trained. He is not professional at all and he is very violent and aggressive. If I could have given this place a zero rating, I would have. Please don't go and spend your hard earned money at a place like this. Angela is very very messy and also very unprofessional. Angela is always saying your room number out loud in front of people, but she claims to have all these years of hotel experience. Whoever owns this place has a bunch of unprofessional bulies running this property, and it's going to lose them a bunch of money and clientele. I promise I'm going above and beyond to report this hotel and its employees but the right department. This place is Trash.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded July 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2017</t>
+  </si>
+  <si>
+    <t>Husambis a bigot and racist who doesn't like women. Sam said I couldn't have towels because he didn't like me. Shani said I couldn't come ask for anything because she didn't like me. These people have absolutely no training and no professionalism. They are running a cess pool, not a hotel. If you want to be discriminated against and disrespected on a daily basis, by all means stay at this property. Shani is ALAWAYS stuffing her face and walking around barefoot. Sam should not be managing a hotel. He has zero problem resolution skills and has not been properly trained. He is not professional at all and he is very violent and aggressive. If I could have given this place a zero rating, I would have. Please don't go and spend your hard earned money at a place like this. Angela is very very messy and also very unprofessional. Angela is always saying your room number out loud in front of people, but she claims to have all these years of hotel experience. Whoever owns this place has a bunch of unprofessional bulies running this property, and it's going to lose them a bunch of money and clientele. I promise I'm going above and beyond to report this hotel and its employees but the right department. This place is Trash.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r446426307-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>446426307</t>
+  </si>
+  <si>
+    <t>12/24/2016</t>
+  </si>
+  <si>
+    <t>Rod's extended stay</t>
+  </si>
+  <si>
+    <t>I chose this facility due to the location. I have remained as I have found that this ESA meets or exceeds all of my requirements for an extended stay.  The entire staff go out of their way to see that my stay is comfortable.  Any minor problems that have arisen have been taken care of immediately and to my satisfaction.  I would recommend this facility for both short and long term stays.  A complimentary daily  "grab and go" breakfast bar is provided.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r438746978-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>438746978</t>
+  </si>
+  <si>
+    <t>11/20/2016</t>
+  </si>
+  <si>
+    <t>Traveling Therapist</t>
+  </si>
+  <si>
+    <t>I am a traveling therapist and stayed here. I usually take 3 month assgn but took a 9 month position. I got a great rate through a book in advance promotion. I prepaid for 2 months with the intention of finding an apartment with. Short term lease. I ended up staying 3 months because my boyfriend who visited frequently thought it was safe, had a good staff, andmet my needs ( full kitchen, soft beds, spacious room). I agreed and continued to stay ultimately I moved because the be honest the surrounding neighborhood is not desirable. I enjoy walks and outdoor activities so I moved to midtown (there are cheaper nice options but since I'm a traveler I wanted to experience midtown). The hotel is off of 45 so getting to work was a breeze. Quick access to grocery stores and the mall (I recommend Willowbrook mall).MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded December 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2016</t>
+  </si>
+  <si>
+    <t>I am a traveling therapist and stayed here. I usually take 3 month assgn but took a 9 month position. I got a great rate through a book in advance promotion. I prepaid for 2 months with the intention of finding an apartment with. Short term lease. I ended up staying 3 months because my boyfriend who visited frequently thought it was safe, had a good staff, andmet my needs ( full kitchen, soft beds, spacious room). I agreed and continued to stay ultimately I moved because the be honest the surrounding neighborhood is not desirable. I enjoy walks and outdoor activities so I moved to midtown (there are cheaper nice options but since I'm a traveler I wanted to experience midtown). The hotel is off of 45 so getting to work was a breeze. Quick access to grocery stores and the mall (I recommend Willowbrook mall).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r436801809-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>436801809</t>
+  </si>
+  <si>
+    <t>11/13/2016</t>
+  </si>
+  <si>
+    <t>Last minute stay</t>
+  </si>
+  <si>
+    <t>Terrible. Front desk lady was nice. Bed was uncomfortable. Fleas in the laundry room. Room was HOT upon arrival. I booked it on priceline because it was considered a 2.5 star hotel. Ummmm.... Nope! Free breakfast???? Coffee and prepackaged muffins and granola bars. This was unacceptable. I'm disappointed in priceline. This was the first time I've ever had bad luck with their express deals.  Also, this hotel requires a $100 deposit. Very disappointing!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded November 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2016</t>
+  </si>
+  <si>
+    <t>Terrible. Front desk lady was nice. Bed was uncomfortable. Fleas in the laundry room. Room was HOT upon arrival. I booked it on priceline because it was considered a 2.5 star hotel. Ummmm.... Nope! Free breakfast???? Coffee and prepackaged muffins and granola bars. This was unacceptable. I'm disappointed in priceline. This was the first time I've ever had bad luck with their express deals.  Also, this hotel requires a $100 deposit. Very disappointing!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r360226173-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>360226173</t>
+  </si>
+  <si>
+    <t>03/30/2016</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>I had a wonderful experience i definetly reccomend them.  The bed was comfortable, the room was very clean, when I requested additional pillows no problem. The front desk person at check in was very friendly (Raven)MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded April 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2016</t>
+  </si>
+  <si>
+    <t>I had a wonderful experience i definetly reccomend them.  The bed was comfortable, the room was very clean, when I requested additional pillows no problem. The front desk person at check in was very friendly (Raven)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r350142313-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350142313</t>
+  </si>
+  <si>
+    <t>02/22/2016</t>
+  </si>
+  <si>
+    <t>good place to stay &amp; convenient to the airport</t>
+  </si>
+  <si>
+    <t>I've stayed here 3 times for business &amp; although one of those visits wasn't a good one, it isn't a bad place. The hotel is located close to the highway (I-45 &amp; beltway 8), the airport, the mall, restaurants,etc....The staff has been great all 3 times &amp; I would stay there again. It isn't luxurious, but handles the basic needs pretty wellMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded February 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 29, 2016</t>
+  </si>
+  <si>
+    <t>I've stayed here 3 times for business &amp; although one of those visits wasn't a good one, it isn't a bad place. The hotel is located close to the highway (I-45 &amp; beltway 8), the airport, the mall, restaurants,etc....The staff has been great all 3 times &amp; I would stay there again. It isn't luxurious, but handles the basic needs pretty wellMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r335859869-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>335859869</t>
+  </si>
+  <si>
+    <t>12/29/2015</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>The room was ready on time. I was clean and had everything I requested. I was there for 7 weeks. The staff was great. The manager Sam always had a smile on his face and ready to meet the needs of the guest. The front desk personal were great. Mrs. Patsy was a great person to be around. It did not matter what kind of mood you where in by the time she was done with you, you were laughing and enjoying life again. Mr. Scott on the night shift was also great, he was very kind and attentive to the needs of the guest. I will stay here anytime I am in the Houston area!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded January 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2016</t>
+  </si>
+  <si>
+    <t>The room was ready on time. I was clean and had everything I requested. I was there for 7 weeks. The staff was great. The manager Sam always had a smile on his face and ready to meet the needs of the guest. The front desk personal were great. Mrs. Patsy was a great person to be around. It did not matter what kind of mood you where in by the time she was done with you, you were laughing and enjoying life again. Mr. Scott on the night shift was also great, he was very kind and attentive to the needs of the guest. I will stay here anytime I am in the Houston area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r329846435-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>329846435</t>
+  </si>
+  <si>
+    <t>11/29/2015</t>
+  </si>
+  <si>
+    <t>Roach Infested - stay away!</t>
+  </si>
+  <si>
+    <t>Honestly the worst hotel I've ever stayed at.  Five minutes after I arrived at my room the fire alarms went off, and they continued going off at irregular intervals throughout the duration of my stay.  The staff seemed more annoyed than concerned. The room was poorly cleaned before my arrival; there were stains on the bedsheets, there was leftover food in the fridge, someone else's garbage in the can, and best of all, a massive dead roach in the middle of the floor.  I also saw multiple live roaches both in my room and in the hallway. It was absolutely disgusting.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded December 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2015</t>
+  </si>
+  <si>
+    <t>Honestly the worst hotel I've ever stayed at.  Five minutes after I arrived at my room the fire alarms went off, and they continued going off at irregular intervals throughout the duration of my stay.  The staff seemed more annoyed than concerned. The room was poorly cleaned before my arrival; there were stains on the bedsheets, there was leftover food in the fridge, someone else's garbage in the can, and best of all, a massive dead roach in the middle of the floor.  I also saw multiple live roaches both in my room and in the hallway. It was absolutely disgusting.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r325062382-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>325062382</t>
+  </si>
+  <si>
+    <t>11/07/2015</t>
+  </si>
+  <si>
+    <t>Horrible - Do not stay</t>
+  </si>
+  <si>
+    <t>First I only stayed here because their corporate office sent a 20% off coupon / promo.  I am a business traveler, so I try to save where I can.  The short answer is:  Do Not Stay here!  The top 5 reasons in reverse order:5.  Rude Staff4.  The hallways smelled like old food3.  The staff was aware I had a 20% promo code, but every time I asked why they have not applied it they lied and stated they would apply when I checked out.  Still have not not seen my discount2.  Did not feel safe around areaand the #1 reason not stay is:1.  My room smelled like the previous occupant vomited and they tried to cover the smell up, but could not.  So that was the smell I had to deal with for 3 days.This is the absolutely worse place I have stated in years and I travel about every 2 weeks, so I have seen a lot of hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded November 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2015</t>
+  </si>
+  <si>
+    <t>First I only stayed here because their corporate office sent a 20% off coupon / promo.  I am a business traveler, so I try to save where I can.  The short answer is:  Do Not Stay here!  The top 5 reasons in reverse order:5.  Rude Staff4.  The hallways smelled like old food3.  The staff was aware I had a 20% promo code, but every time I asked why they have not applied it they lied and stated they would apply when I checked out.  Still have not not seen my discount2.  Did not feel safe around areaand the #1 reason not stay is:1.  My room smelled like the previous occupant vomited and they tried to cover the smell up, but could not.  So that was the smell I had to deal with for 3 days.This is the absolutely worse place I have stated in years and I travel about every 2 weeks, so I have seen a lot of hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r320504231-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>320504231</t>
+  </si>
+  <si>
+    <t>10/20/2015</t>
+  </si>
+  <si>
+    <t>Welcome Oasis !</t>
+  </si>
+  <si>
+    <t>Clean, comfortable suite ( no bugs). Professional staff that is very attentive !Great value for the dollar. Very well kept and landscaped. Pet friendly with excellent air conditioning. A front desk staff that is very professional !MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded October 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 28, 2015</t>
+  </si>
+  <si>
+    <t>Clean, comfortable suite ( no bugs). Professional staff that is very attentive !Great value for the dollar. Very well kept and landscaped. Pet friendly with excellent air conditioning. A front desk staff that is very professional !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r275859744-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>275859744</t>
+  </si>
+  <si>
+    <t>05/30/2015</t>
+  </si>
+  <si>
+    <t>travel nursing: no noise, great stay</t>
+  </si>
+  <si>
+    <t>my experience at this location was very pleasant and mrs pat made sure all my needs were met and each night there was security on the grounds and my vehicle was never tampered with. I felt safe and was very comfortable. this stay was simple and sweet. I utilized the exercise equipment, vending machine and washing machines. I had grab and go breakfast that was good as well. oatmeal, coffee, tea, snack bars, muffins, fruit this was great for on the go. the gentleman at the desk in the evening, i think his name was Scott, he help with all my printing needs during my stay. i enjoyed my stay at this location and would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded June 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2015</t>
+  </si>
+  <si>
+    <t>my experience at this location was very pleasant and mrs pat made sure all my needs were met and each night there was security on the grounds and my vehicle was never tampered with. I felt safe and was very comfortable. this stay was simple and sweet. I utilized the exercise equipment, vending machine and washing machines. I had grab and go breakfast that was good as well. oatmeal, coffee, tea, snack bars, muffins, fruit this was great for on the go. the gentleman at the desk in the evening, i think his name was Scott, he help with all my printing needs during my stay. i enjoyed my stay at this location and would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r257976536-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>257976536</t>
+  </si>
+  <si>
+    <t>03/06/2015</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The price was right for my budget but you had to book before you would know which hotel you were assigned and did not know how far from the hotel or if they had a shuttle. The hotel and staff was all good. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r246550969-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>246550969</t>
+  </si>
+  <si>
+    <t>12/30/2014</t>
+  </si>
+  <si>
+    <t>Stay away !!!</t>
+  </si>
+  <si>
+    <t>Many of you know me as frequent traveller, contributor as well as guest of several Extended Stay's around the nation. While I got a really good rate at this place, I can not recommend to stay here. Place is terrible and reminds me on cheap motel in India's Calcutta Area. Staff (especially Scott) is really lazy and can't be bothered with anything. Room smells and is certainly not clean. There is a security car parked outside overnight keeping blue and white strobe lights on. Petrol Station and Mc Donald's around there need to be avoided. Actually, if possible avoid the area at all and pay a little more to get a better room. Wont be coming back and did not feel safe either. Good bye !MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Many of you know me as frequent traveller, contributor as well as guest of several Extended Stay's around the nation. While I got a really good rate at this place, I can not recommend to stay here. Place is terrible and reminds me on cheap motel in India's Calcutta Area. Staff (especially Scott) is really lazy and can't be bothered with anything. Room smells and is certainly not clean. There is a security car parked outside overnight keeping blue and white strobe lights on. Petrol Station and Mc Donald's around there need to be avoided. Actually, if possible avoid the area at all and pay a little more to get a better room. Wont be coming back and did not feel safe either. Good bye !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r232009415-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>232009415</t>
+  </si>
+  <si>
+    <t>10/01/2014</t>
+  </si>
+  <si>
+    <t>Avoid this Hotel the only Good thing is thethe</t>
+  </si>
+  <si>
+    <t>Avoid this Hotel the only Good thing is the location. This hotel is located very near The Galleria, witch is the only good thing it has. The rooms are old, the AC makes a lot of noise, there was not hot water, there is only one receptionist so if you need something there is a wait. And it was $ 190 dollars definitively would never stay again.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r229683828-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>229683828</t>
+  </si>
+  <si>
+    <t>09/18/2014</t>
+  </si>
+  <si>
+    <t>NEGLIGENT IN THEIR DUTY TO PROTECT; VAN JACKED ALL OUR BELONGINGS ARE GONE</t>
+  </si>
+  <si>
+    <t>Clearly, the hotel is aware of the fact that it is in a high crime area. The police told me that 34 cars per month are stolen from this area. The hotel cameras, lighting and fence do not deter the vehicle thief, maybe because the police don't even look at or ask for the video. My van was a work van and I only had liability. I know I should have had more, but still, 2 Kayaks gone, rock climbing gear gone, tools gone, clothing gone. My presumption of safety was incorrect. Since the hotel knows it is in such a high crime area they should install a gate to secure the fence. What is the point of having a fence, all around a property in a bad neighborhood where 34 vehicles get stolen in one month, without a gate? Do you think hotel owners should offer to compensate? I do.Especially, since they know they are in a high crime area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded September 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2014</t>
+  </si>
+  <si>
+    <t>Clearly, the hotel is aware of the fact that it is in a high crime area. The police told me that 34 cars per month are stolen from this area. The hotel cameras, lighting and fence do not deter the vehicle thief, maybe because the police don't even look at or ask for the video. My van was a work van and I only had liability. I know I should have had more, but still, 2 Kayaks gone, rock climbing gear gone, tools gone, clothing gone. My presumption of safety was incorrect. Since the hotel knows it is in such a high crime area they should install a gate to secure the fence. What is the point of having a fence, all around a property in a bad neighborhood where 34 vehicles get stolen in one month, without a gate? Do you think hotel owners should offer to compensate? I do.Especially, since they know they are in a high crime area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r229194667-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>229194667</t>
+  </si>
+  <si>
+    <t>09/16/2014</t>
+  </si>
+  <si>
+    <t>Surprisingly quite nice</t>
+  </si>
+  <si>
+    <t>Made reservation on Priceline so didn't know what we would get. Greeted by a nice front desk lady. Room/suite large, clean &amp; comfy, nice kitchen (we didn't use it though). Only problems were no wash cloths, just towels, in bath and even worse NO ice machine. Fridge &amp; freezer in room kitchen &amp; EMPTY ice trays in freezer but no ice available anyplace in hotel. Otherwise, nice place. Just bring your own ice &amp; washcloth.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded September 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2014</t>
+  </si>
+  <si>
+    <t>Made reservation on Priceline so didn't know what we would get. Greeted by a nice front desk lady. Room/suite large, clean &amp; comfy, nice kitchen (we didn't use it though). Only problems were no wash cloths, just towels, in bath and even worse NO ice machine. Fridge &amp; freezer in room kitchen &amp; EMPTY ice trays in freezer but no ice available anyplace in hotel. Otherwise, nice place. Just bring your own ice &amp; washcloth.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r206193490-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>206193490</t>
+  </si>
+  <si>
+    <t>05/19/2014</t>
+  </si>
+  <si>
+    <t>Great value !</t>
+  </si>
+  <si>
+    <t>Great service, staff, quality of room, nice shower/bath, full kitchen at very great price.  I will return.The guy at reception was really to satisfied my needs.  I was surprised of the quality for the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded May 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2014</t>
+  </si>
+  <si>
+    <t>Great service, staff, quality of room, nice shower/bath, full kitchen at very great price.  I will return.The guy at reception was really to satisfied my needs.  I was surprised of the quality for the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r201085429-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>201085429</t>
+  </si>
+  <si>
+    <t>04/14/2014</t>
+  </si>
+  <si>
+    <t>Loved the hotel itself</t>
+  </si>
+  <si>
+    <t>The hotel itself was a wonderful find. we had plenty of room, the beds were comfortable, and the room was clean. We loved having the option of the couch with a pullout for our son. Our 2 year old doesn't normally sleep wel in hotels, but he slept the whole night. Now for my gripes. This hotel was supposed to be in the area of the George Bush airport. After an almost $30 cab ride (both to and from the airport), we realized that it was not. If you need easy access to IAH, do NOT book this hotel. Also, when I see breakfast served, I think a full breakfast, but this was more of a continental breakfast. We ate granola bars and muffins which we could`ve brought from home. Overall, we were very happy with our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded April 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2014</t>
+  </si>
+  <si>
+    <t>The hotel itself was a wonderful find. we had plenty of room, the beds were comfortable, and the room was clean. We loved having the option of the couch with a pullout for our son. Our 2 year old doesn't normally sleep wel in hotels, but he slept the whole night. Now for my gripes. This hotel was supposed to be in the area of the George Bush airport. After an almost $30 cab ride (both to and from the airport), we realized that it was not. If you need easy access to IAH, do NOT book this hotel. Also, when I see breakfast served, I think a full breakfast, but this was more of a continental breakfast. We ate granola bars and muffins which we could`ve brought from home. Overall, we were very happy with our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r193413800-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>193413800</t>
+  </si>
+  <si>
+    <t>02/08/2014</t>
+  </si>
+  <si>
+    <t>I will always stay there</t>
+  </si>
+  <si>
+    <t>The rooms are great, spacious, clean and smells nice. I don't smoke and hence I don't like smoking rooms on the second floor. I once stayed on the smoking floor and I never liked it. But I will always stay there anytime I am in Houston.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r176118968-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>176118968</t>
+  </si>
+  <si>
+    <t>09/06/2013</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>The hotel is located close to a freeway which makes it very accessible, but a little noisy, not an issue for me. Room is a little small, but enough for a short stay as I had. Looks like recently reaconditioned. It was clean. A/C worked fine. Electric oven worked very good baking a frozen pizza. Bathroom was clean. No hair shampoo. A basic room housekeeping would be nice, at least making the bed. Staff is very good.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r175802625-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>175802625</t>
+  </si>
+  <si>
+    <t>09/04/2013</t>
+  </si>
+  <si>
+    <t>Not bad for the price</t>
+  </si>
+  <si>
+    <t>Room was clean, breakfast consist of Oatmeal bars and coffee. Not much there did not see any fruit. Had to call them to get my room cleaned after a little over a week. I stayed there for three weeks. Bed was not comfortable for me. No pool or spa</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r172679976-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>172679976</t>
+  </si>
+  <si>
+    <t>08/17/2013</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>We stayed here for 2 weeks while my husband was being treated at Mc Anderson. A little far out but was the best rate during rodeo time. The staff at the front desk were extremely accommodating. Had a little maintenance issue that was fixed right away.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r160383321-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>160383321</t>
+  </si>
+  <si>
+    <t>05/11/2013</t>
+  </si>
+  <si>
+    <t>Excellent service</t>
+  </si>
+  <si>
+    <t>GM Abraham Vargas researched the best rate and his staff Scott, Patsy, Ashley, George, Haydee &amp; Annabelle provided service with a smile. They all saved me from the stress of getting a new job in the area! Though the fitness equipment needs an upgrade, I would recommend this hotel to anyone looking for a decent and safe place to stay.  Better yet, live here longer, get lower rates, &amp; enjoy the amenities of a newly-renovated hotel (comfortable bed &amp; full kitchen with pots/pans/utensils) Be pampered by all the staff; they all ensure you feel at home here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r159211651-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>159211651</t>
+  </si>
+  <si>
+    <t>04/29/2013</t>
+  </si>
+  <si>
+    <t>Dont Stay AnywhereTill You Tried This Staff...</t>
+  </si>
+  <si>
+    <t>Lets face it you can stay at a thousand Hotels in a million rooms. Really they can all be pretty close to the same. BUT Its the Staff that make it worth staying there as you enter This Hotel you are greeted normally by your name. Patsy always has a smile and a warm greeting for you. She is the first to help if you have a problem and in a rare case she calls in Abarham The General Manager, your problem will be solved for sure. Then as you near your room you will see Annabel or Haydee Housekeepers, most likely the two best in the area. These ladies are great they clean your room beyond your expetations. The Night manager Scott stands ready if needed at night for any reason. I think Scotts middle name is Service. Checked me in 3months ago in the middle of the night and to date I am not leaving. A night never goes by when I arrive home that the Security Officer is patrolling the property, Guess what he knows my name and greets me with a smile. There are others that work here that make it work the way it does but a man does have to sleep sometimes. Can't say enough great things about the STAFF...
+The Rooms are clean and comfortable serviced regularly, the grounds are kept perfectly and safe. The few problems I have had were handled in...Lets face it you can stay at a thousand Hotels in a million rooms. Really they can all be pretty close to the same. BUT Its the Staff that make it worth staying there as you enter This Hotel you are greeted normally by your name. Patsy always has a smile and a warm greeting for you. She is the first to help if you have a problem and in a rare case she calls in Abarham The General Manager, your problem will be solved for sure. Then as you near your room you will see Annabel or Haydee Housekeepers, most likely the two best in the area. These ladies are great they clean your room beyond your expetations. The Night manager Scott stands ready if needed at night for any reason. I think Scotts middle name is Service. Checked me in 3months ago in the middle of the night and to date I am not leaving. A night never goes by when I arrive home that the Security Officer is patrolling the property, Guess what he knows my name and greets me with a smile. There are others that work here that make it work the way it does but a man does have to sleep sometimes. Can't say enough great things about the STAFF...The Rooms are clean and comfortable serviced regularly, the grounds are kept perfectly and safe. The few problems I have had were handled in a few minutes with the utmost Professional Manner possible. Sure you might find a room that might equal this but there is no better Hotel Staff around anywhere. They make coming HOME worth the trip. Thanks GuysMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded May 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2013</t>
+  </si>
+  <si>
+    <t>Lets face it you can stay at a thousand Hotels in a million rooms. Really they can all be pretty close to the same. BUT Its the Staff that make it worth staying there as you enter This Hotel you are greeted normally by your name. Patsy always has a smile and a warm greeting for you. She is the first to help if you have a problem and in a rare case she calls in Abarham The General Manager, your problem will be solved for sure. Then as you near your room you will see Annabel or Haydee Housekeepers, most likely the two best in the area. These ladies are great they clean your room beyond your expetations. The Night manager Scott stands ready if needed at night for any reason. I think Scotts middle name is Service. Checked me in 3months ago in the middle of the night and to date I am not leaving. A night never goes by when I arrive home that the Security Officer is patrolling the property, Guess what he knows my name and greets me with a smile. There are others that work here that make it work the way it does but a man does have to sleep sometimes. Can't say enough great things about the STAFF...
+The Rooms are clean and comfortable serviced regularly, the grounds are kept perfectly and safe. The few problems I have had were handled in...Lets face it you can stay at a thousand Hotels in a million rooms. Really they can all be pretty close to the same. BUT Its the Staff that make it worth staying there as you enter This Hotel you are greeted normally by your name. Patsy always has a smile and a warm greeting for you. She is the first to help if you have a problem and in a rare case she calls in Abarham The General Manager, your problem will be solved for sure. Then as you near your room you will see Annabel or Haydee Housekeepers, most likely the two best in the area. These ladies are great they clean your room beyond your expetations. The Night manager Scott stands ready if needed at night for any reason. I think Scotts middle name is Service. Checked me in 3months ago in the middle of the night and to date I am not leaving. A night never goes by when I arrive home that the Security Officer is patrolling the property, Guess what he knows my name and greets me with a smile. There are others that work here that make it work the way it does but a man does have to sleep sometimes. Can't say enough great things about the STAFF...The Rooms are clean and comfortable serviced regularly, the grounds are kept perfectly and safe. The few problems I have had were handled in a few minutes with the utmost Professional Manner possible. Sure you might find a room that might equal this but there is no better Hotel Staff around anywhere. They make coming HOME worth the trip. Thanks GuysMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r158884854-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>158884854</t>
+  </si>
+  <si>
+    <t>04/26/2013</t>
+  </si>
+  <si>
+    <t>home away from home as a travel RN in Houston, TX</t>
+  </si>
+  <si>
+    <t>My stay here has been very relaxing on my days off.  A warm, safe place to stay.  Never worried about the time of day or night coming and going from work or a night out at the Houston Symphony because there are guards here at night.   The staff here including Ashley, Scott, Abraham, George, Patsy, Haydee and Annabelle have been very kind and welcoming.  Examples include extra towels &amp; any other needs at any time day or night, to pulling up maps for destinations I was interested in seeing while I have been here.  I recommend this hotel especially to those who will be working here on a temporary assignment and need a home away from home including a full kitchen.  It has been very nice to only have to do my personal shopping and laundry while here as ESA takes care of every thing else that needs cleaning.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded May 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2013</t>
+  </si>
+  <si>
+    <t>My stay here has been very relaxing on my days off.  A warm, safe place to stay.  Never worried about the time of day or night coming and going from work or a night out at the Houston Symphony because there are guards here at night.   The staff here including Ashley, Scott, Abraham, George, Patsy, Haydee and Annabelle have been very kind and welcoming.  Examples include extra towels &amp; any other needs at any time day or night, to pulling up maps for destinations I was interested in seeing while I have been here.  I recommend this hotel especially to those who will be working here on a temporary assignment and need a home away from home including a full kitchen.  It has been very nice to only have to do my personal shopping and laundry while here as ESA takes care of every thing else that needs cleaning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r152122985-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152122985</t>
+  </si>
+  <si>
+    <t>02/14/2013</t>
+  </si>
+  <si>
+    <t>What a wonderful place to stay!!!!!</t>
+  </si>
+  <si>
+    <t>I'm am relocating from Chicago to the Houston area, and I have stayed at numerous hotels across The United States of America, in my 51 years!  Up to now I always thought that Marriott, was the best, I even stayed at one Marriott in Findlay Ohio for 10 months.  I wist that I would have known about extended Stay America then.  The suite that I am staying in is just like the Marriott suite I lived in before, except the cost is about 75% less than I paid for the Marriott.  From the moment that I arrived, it has been wonderful, Patsy checked me in and she is so knowledgeable as far as the best rates and quick and sweet.  The Manager Abraham also assisted with my reservation for the best rate possible.  Both of them always greet me morning, noon and night, they seem so upbeat and positive, that it gives me a very good feeling every-time I see them it puts a big smile on my face. Steven MartinMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded February 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2013</t>
+  </si>
+  <si>
+    <t>I'm am relocating from Chicago to the Houston area, and I have stayed at numerous hotels across The United States of America, in my 51 years!  Up to now I always thought that Marriott, was the best, I even stayed at one Marriott in Findlay Ohio for 10 months.  I wist that I would have known about extended Stay America then.  The suite that I am staying in is just like the Marriott suite I lived in before, except the cost is about 75% less than I paid for the Marriott.  From the moment that I arrived, it has been wonderful, Patsy checked me in and she is so knowledgeable as far as the best rates and quick and sweet.  The Manager Abraham also assisted with my reservation for the best rate possible.  Both of them always greet me morning, noon and night, they seem so upbeat and positive, that it gives me a very good feeling every-time I see them it puts a big smile on my face. Steven MartinMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r151639107-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151639107</t>
+  </si>
+  <si>
+    <t>02/07/2013</t>
+  </si>
+  <si>
+    <t>Great Hotel--Great Service</t>
+  </si>
+  <si>
+    <t>I have staying at this hotel for quite a while.  The management has changed recently, for the better.  Everyone here is so friendly, and I feel very safe.  I am treated like family, and if I need anything, all I have to do is ask for it.  Recently had the flu and I was treated very well and looked after.I will never stay at a different hotel here in Houston if it requires it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded February 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2013</t>
+  </si>
+  <si>
+    <t>I have staying at this hotel for quite a while.  The management has changed recently, for the better.  Everyone here is so friendly, and I feel very safe.  I am treated like family, and if I need anything, all I have to do is ask for it.  Recently had the flu and I was treated very well and looked after.I will never stay at a different hotel here in Houston if it requires it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r151038790-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151038790</t>
+  </si>
+  <si>
+    <t>01/30/2013</t>
+  </si>
+  <si>
+    <t>Great Stay At Extended stay</t>
+  </si>
+  <si>
+    <t>Was Greeted By A werry good welcome too Extended stay  By Patsy Aldridge And had the manager abriham call too make sure my room was in order. And the room was Verry clean  and everything worked perfect. The entire Staff has made sure my stay has been great  even security told me was watching after my trk   wow how nice   thanks extended stay for a great stay      James SpicerMoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded January 31, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2013</t>
+  </si>
+  <si>
+    <t>Was Greeted By A werry good welcome too Extended stay  By Patsy Aldridge And had the manager abriham call too make sure my room was in order. And the room was Verry clean  and everything worked perfect. The entire Staff has made sure my stay has been great  even security told me was watching after my trk   wow how nice   thanks extended stay for a great stay      James SpicerMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r149898095-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>149898095</t>
+  </si>
+  <si>
+    <t>01/17/2013</t>
+  </si>
+  <si>
+    <t>Great stay home away from home</t>
+  </si>
+  <si>
+    <t>Great, great i love it here quite clean excellent staff Manger Abraham is a wonderful GM the best always there for you Patsy Aldridge aways have a smile very friendly Sean Gomez is a bright young man and Scott Borger he is a man of wisdom always have something nice to say very niceMoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded January 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2013</t>
+  </si>
+  <si>
+    <t>Great, great i love it here quite clean excellent staff Manger Abraham is a wonderful GM the best always there for you Patsy Aldridge aways have a smile very friendly Sean Gomez is a bright young man and Scott Borger he is a man of wisdom always have something nice to say very niceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r148253275-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>148253275</t>
+  </si>
+  <si>
+    <t>12/28/2012</t>
+  </si>
+  <si>
+    <t>Just like home!</t>
+  </si>
+  <si>
+    <t>This is our second time here within a month. 
+Both times when we entered our room it felt like it was brand new and no one had been there before us, you just don't find that anyplace. 
+The rooms are clean and spotless. The furniture is comfortable and just like new. The kitchen has everything you could want to pull together a great meal. These have full size fridge's and ovens. Plenty of counter and cupboard space. There is also a toaster and coffee maker but if you don't feel like making your own breakfast they serve a pretty good selection of muffins, fruit and grab and run munchies and coffee in the lobby.
+I have lived in apartments that are smaller than these spacious rooms. The bed is kind of off in its own space and extremely comfortable. They let you have 4 pillows, which is extremely cool as most places give you 2 that should have been thrown out 10 years ago.
+The staff here is totally awesome and very helpful. We have never had a single reason to think otherwise. They go out of their way to make sure that you are comfortable and all of your needs have been met. Housekeeping totally respects your privacy. That is my biggest pet peeve when it comes to hotels. Put the do not disturb sign on the door and the housekeeper knocks on the door anyway as if it...This is our second time here within a month. Both times when we entered our room it felt like it was brand new and no one had been there before us, you just don't find that anyplace. The rooms are clean and spotless. The furniture is comfortable and just like new. The kitchen has everything you could want to pull together a great meal. These have full size fridge's and ovens. Plenty of counter and cupboard space. There is also a toaster and coffee maker but if you don't feel like making your own breakfast they serve a pretty good selection of muffins, fruit and grab and run munchies and coffee in the lobby.I have lived in apartments that are smaller than these spacious rooms. The bed is kind of off in its own space and extremely comfortable. They let you have 4 pillows, which is extremely cool as most places give you 2 that should have been thrown out 10 years ago.The staff here is totally awesome and very helpful. We have never had a single reason to think otherwise. They go out of their way to make sure that you are comfortable and all of your needs have been met. Housekeeping totally respects your privacy. That is my biggest pet peeve when it comes to hotels. Put the do not disturb sign on the door and the housekeeper knocks on the door anyway as if it doesn't pertain to her/him somehow. Not here. It is so quiet I can sleep days (I work at nights) and I don't have to worry about being disturbed by anyone for any reason. They have security at night... what more could you want?MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded December 31, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 31, 2012</t>
+  </si>
+  <si>
+    <t>This is our second time here within a month. 
+Both times when we entered our room it felt like it was brand new and no one had been there before us, you just don't find that anyplace. 
+The rooms are clean and spotless. The furniture is comfortable and just like new. The kitchen has everything you could want to pull together a great meal. These have full size fridge's and ovens. Plenty of counter and cupboard space. There is also a toaster and coffee maker but if you don't feel like making your own breakfast they serve a pretty good selection of muffins, fruit and grab and run munchies and coffee in the lobby.
+I have lived in apartments that are smaller than these spacious rooms. The bed is kind of off in its own space and extremely comfortable. They let you have 4 pillows, which is extremely cool as most places give you 2 that should have been thrown out 10 years ago.
+The staff here is totally awesome and very helpful. We have never had a single reason to think otherwise. They go out of their way to make sure that you are comfortable and all of your needs have been met. Housekeeping totally respects your privacy. That is my biggest pet peeve when it comes to hotels. Put the do not disturb sign on the door and the housekeeper knocks on the door anyway as if it...This is our second time here within a month. Both times when we entered our room it felt like it was brand new and no one had been there before us, you just don't find that anyplace. The rooms are clean and spotless. The furniture is comfortable and just like new. The kitchen has everything you could want to pull together a great meal. These have full size fridge's and ovens. Plenty of counter and cupboard space. There is also a toaster and coffee maker but if you don't feel like making your own breakfast they serve a pretty good selection of muffins, fruit and grab and run munchies and coffee in the lobby.I have lived in apartments that are smaller than these spacious rooms. The bed is kind of off in its own space and extremely comfortable. They let you have 4 pillows, which is extremely cool as most places give you 2 that should have been thrown out 10 years ago.The staff here is totally awesome and very helpful. We have never had a single reason to think otherwise. They go out of their way to make sure that you are comfortable and all of your needs have been met. Housekeeping totally respects your privacy. That is my biggest pet peeve when it comes to hotels. Put the do not disturb sign on the door and the housekeeper knocks on the door anyway as if it doesn't pertain to her/him somehow. Not here. It is so quiet I can sleep days (I work at nights) and I don't have to worry about being disturbed by anyone for any reason. They have security at night... what more could you want?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r148128485-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>148128485</t>
+  </si>
+  <si>
+    <t>12/27/2012</t>
+  </si>
+  <si>
+    <t>What a transformation! - Truly delightful</t>
+  </si>
+  <si>
+    <t>What a transformation!Having stayed at this property prior, I was really impressed by the renovative transformation. I find it has been transformed to a very modern and upscale hotel setting. I got to say I’m loving the décor, the contrasting colour scheme, and the general warmth of the place, the attention to detail just makes you feel the rates are a steal. Absolute value for money!But that’s not even the best part for me, it is the customer service I couldn’t praise highly enough.Having stayed for a few weeks I got to know the staff and have to say it was most pleasant experience. Patsy couldn’t be more helpful, the lady is an absolutely star,Shirely is simply delightful, Scott I find is supremely courteous, and I’m yet to meet a more diligent housekeeping staff than theirs.If you’re considering a really decent place to stay north of Houston I reckon you couldn’t go far wrong with this one. I'd say it is a kinda of a half way house between a chic hotel and a trendy  executive serviced apartment geared mostly (though not exclusively) for mid-long stay types or family/business trips, but staffed by a great set of people with impeccably commendable customer service skills.For the quality of facilities, the customer service and value for money, I'd highly recommend this hotel any time.MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded December 28, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2012</t>
+  </si>
+  <si>
+    <t>What a transformation!Having stayed at this property prior, I was really impressed by the renovative transformation. I find it has been transformed to a very modern and upscale hotel setting. I got to say I’m loving the décor, the contrasting colour scheme, and the general warmth of the place, the attention to detail just makes you feel the rates are a steal. Absolute value for money!But that’s not even the best part for me, it is the customer service I couldn’t praise highly enough.Having stayed for a few weeks I got to know the staff and have to say it was most pleasant experience. Patsy couldn’t be more helpful, the lady is an absolutely star,Shirely is simply delightful, Scott I find is supremely courteous, and I’m yet to meet a more diligent housekeeping staff than theirs.If you’re considering a really decent place to stay north of Houston I reckon you couldn’t go far wrong with this one. I'd say it is a kinda of a half way house between a chic hotel and a trendy  executive serviced apartment geared mostly (though not exclusively) for mid-long stay types or family/business trips, but staffed by a great set of people with impeccably commendable customer service skills.For the quality of facilities, the customer service and value for money, I'd highly recommend this hotel any time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r146314108-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>146314108</t>
+  </si>
+  <si>
+    <t>11/27/2012</t>
+  </si>
+  <si>
+    <t>Like Family</t>
+  </si>
+  <si>
+    <t>I have stayed here for 16 months. I never intended to stay this long, but they treat you like family and I didn't have to hassle with renting an apartment, or house. They recently completed a multi-million dollar renovation and everything is literally brand new. I had the flu recently, who hasn't?, and the desk staff, management, and housekeeping checked on me like  mother hens. They brought me hot chocolate, orange juice, and chicken noodle soup. What apartment complex could I move to and get that kind of treatment? For a day, aweek, or long-term, check-in, and let the staff here pamper you too...Tom LMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded November 29, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 29, 2012</t>
+  </si>
+  <si>
+    <t>I have stayed here for 16 months. I never intended to stay this long, but they treat you like family and I didn't have to hassle with renting an apartment, or house. They recently completed a multi-million dollar renovation and everything is literally brand new. I had the flu recently, who hasn't?, and the desk staff, management, and housekeeping checked on me like  mother hens. They brought me hot chocolate, orange juice, and chicken noodle soup. What apartment complex could I move to and get that kind of treatment? For a day, aweek, or long-term, check-in, and let the staff here pamper you too...Tom LMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r145757813-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>145757813</t>
+  </si>
+  <si>
+    <t>11/19/2012</t>
+  </si>
+  <si>
+    <t>Great place.</t>
+  </si>
+  <si>
+    <t>we were very satisfied with this stay. we're working in the area, and this met all our needs\. Close to everything you might need, and only a few miles to the George Bush Intercontinental Airport! We feel very much at home here. Very clean rooms, and friendly, helpful staff ! We love the place!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded November 22, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2012</t>
+  </si>
+  <si>
+    <t>we were very satisfied with this stay. we're working in the area, and this met all our needs\. Close to everything you might need, and only a few miles to the George Bush Intercontinental Airport! We feel very much at home here. Very clean rooms, and friendly, helpful staff ! We love the place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r145453866-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>145453866</t>
+  </si>
+  <si>
+    <t>11/15/2012</t>
+  </si>
+  <si>
+    <t>Just like Home</t>
+  </si>
+  <si>
+    <t>Extended Stay- Greenspoint-Houston is the most comfy place to stay.there is no exaggeration if I say This is The Place where you are just as comfortable and content as if you were home.       We have been here for last two weeks and are going to be here for another two weeks. The staff members are courteous,friendly and very helpful.Especially Abraham,Patsy,Shirley,Sean,Jorge and Haydee.They are fantastic.       We highly recommend this place to everyone who is looking for  comforts of home when they are away from home.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded November 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2012</t>
+  </si>
+  <si>
+    <t>Extended Stay- Greenspoint-Houston is the most comfy place to stay.there is no exaggeration if I say This is The Place where you are just as comfortable and content as if you were home.       We have been here for last two weeks and are going to be here for another two weeks. The staff members are courteous,friendly and very helpful.Especially Abraham,Patsy,Shirley,Sean,Jorge and Haydee.They are fantastic.       We highly recommend this place to everyone who is looking for  comforts of home when they are away from home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r138607864-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>138607864</t>
+  </si>
+  <si>
+    <t>08/27/2012</t>
+  </si>
+  <si>
+    <t>Excellent stay at Greenspoint</t>
+  </si>
+  <si>
+    <t>My stay in the hotel was very nice. I stayed here in my first trip (June/July 2012) and I was so impressed that I chose to stay here when I came back again in August. The staff members are fantastic and I wish to mention Abraham, Shirely and Sean. These are fantastic staff and vey courteous too. I have already booked again for my coming business trip in September.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded September 4, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2012</t>
+  </si>
+  <si>
+    <t>My stay in the hotel was very nice. I stayed here in my first trip (June/July 2012) and I was so impressed that I chose to stay here when I came back again in August. The staff members are fantastic and I wish to mention Abraham, Shirely and Sean. These are fantastic staff and vey courteous too. I have already booked again for my coming business trip in September.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1529,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1561,2755 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>107</v>
+      </c>
+      <c r="O8" t="s">
+        <v>108</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>114</v>
+      </c>
+      <c r="O9" t="s">
+        <v>81</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>115</v>
+      </c>
+      <c r="X9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>114</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>123</v>
+      </c>
+      <c r="X10" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11" t="s">
+        <v>129</v>
+      </c>
+      <c r="L11" t="s">
+        <v>130</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>131</v>
+      </c>
+      <c r="O11" t="s">
+        <v>108</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>132</v>
+      </c>
+      <c r="X11" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>136</v>
+      </c>
+      <c r="J12" t="s">
+        <v>137</v>
+      </c>
+      <c r="K12" t="s">
+        <v>138</v>
+      </c>
+      <c r="L12" t="s">
+        <v>139</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>140</v>
+      </c>
+      <c r="O12" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>141</v>
+      </c>
+      <c r="X12" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" t="s">
+        <v>148</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>149</v>
+      </c>
+      <c r="O13" t="s">
+        <v>81</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>150</v>
+      </c>
+      <c r="X13" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" t="s">
+        <v>156</v>
+      </c>
+      <c r="L14" t="s">
+        <v>157</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>149</v>
+      </c>
+      <c r="O14" t="s">
+        <v>108</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>158</v>
+      </c>
+      <c r="X14" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>162</v>
+      </c>
+      <c r="J15" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" t="s">
+        <v>164</v>
+      </c>
+      <c r="L15" t="s">
+        <v>165</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>149</v>
+      </c>
+      <c r="O15" t="s">
+        <v>81</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>166</v>
+      </c>
+      <c r="X15" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>170</v>
+      </c>
+      <c r="J16" t="s">
+        <v>171</v>
+      </c>
+      <c r="K16" t="s">
+        <v>172</v>
+      </c>
+      <c r="L16" t="s">
+        <v>173</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>174</v>
+      </c>
+      <c r="O16" t="s">
+        <v>81</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>175</v>
+      </c>
+      <c r="X16" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>179</v>
+      </c>
+      <c r="J17" t="s">
+        <v>180</v>
+      </c>
+      <c r="K17" t="s">
+        <v>181</v>
+      </c>
+      <c r="L17" t="s">
+        <v>182</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>183</v>
+      </c>
+      <c r="O17" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>184</v>
+      </c>
+      <c r="X17" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>188</v>
+      </c>
+      <c r="J18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K18" t="s">
+        <v>190</v>
+      </c>
+      <c r="L18" t="s">
+        <v>191</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>192</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>193</v>
+      </c>
+      <c r="J19" t="s">
+        <v>194</v>
+      </c>
+      <c r="K19" t="s">
+        <v>195</v>
+      </c>
+      <c r="L19" t="s">
+        <v>196</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>197</v>
+      </c>
+      <c r="O19" t="s">
+        <v>81</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>200</v>
+      </c>
+      <c r="J20" t="s">
+        <v>201</v>
+      </c>
+      <c r="K20" t="s">
+        <v>202</v>
+      </c>
+      <c r="L20" t="s">
+        <v>203</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>204</v>
+      </c>
+      <c r="O20" t="s">
+        <v>81</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>205</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>206</v>
+      </c>
+      <c r="J21" t="s">
+        <v>207</v>
+      </c>
+      <c r="K21" t="s">
+        <v>208</v>
+      </c>
+      <c r="L21" t="s">
+        <v>209</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>204</v>
+      </c>
+      <c r="O21" t="s">
+        <v>81</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>210</v>
+      </c>
+      <c r="X21" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>214</v>
+      </c>
+      <c r="J22" t="s">
+        <v>215</v>
+      </c>
+      <c r="K22" t="s">
+        <v>216</v>
+      </c>
+      <c r="L22" t="s">
+        <v>217</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>218</v>
+      </c>
+      <c r="X22" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>221</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>222</v>
+      </c>
+      <c r="J23" t="s">
+        <v>223</v>
+      </c>
+      <c r="K23" t="s">
+        <v>224</v>
+      </c>
+      <c r="L23" t="s">
+        <v>225</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>226</v>
+      </c>
+      <c r="O23" t="s">
+        <v>108</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>227</v>
+      </c>
+      <c r="X23" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>230</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>231</v>
+      </c>
+      <c r="J24" t="s">
+        <v>232</v>
+      </c>
+      <c r="K24" t="s">
+        <v>233</v>
+      </c>
+      <c r="L24" t="s">
+        <v>234</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>235</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>236</v>
+      </c>
+      <c r="X24" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>239</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>240</v>
+      </c>
+      <c r="J25" t="s">
+        <v>241</v>
+      </c>
+      <c r="K25" t="s">
+        <v>242</v>
+      </c>
+      <c r="L25" t="s">
+        <v>243</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>244</v>
+      </c>
+      <c r="O25" t="s">
+        <v>81</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>245</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>246</v>
+      </c>
+      <c r="J26" t="s">
+        <v>247</v>
+      </c>
+      <c r="K26" t="s">
+        <v>248</v>
+      </c>
+      <c r="L26" t="s">
+        <v>249</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>250</v>
+      </c>
+      <c r="O26" t="s">
+        <v>81</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>251</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>252</v>
+      </c>
+      <c r="J27" t="s">
+        <v>253</v>
+      </c>
+      <c r="K27" t="s">
+        <v>254</v>
+      </c>
+      <c r="L27" t="s">
+        <v>255</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>250</v>
+      </c>
+      <c r="O27" t="s">
+        <v>81</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>256</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>257</v>
+      </c>
+      <c r="J28" t="s">
+        <v>258</v>
+      </c>
+      <c r="K28" t="s">
+        <v>259</v>
+      </c>
+      <c r="L28" t="s">
+        <v>260</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>261</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>262</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>263</v>
+      </c>
+      <c r="J29" t="s">
+        <v>264</v>
+      </c>
+      <c r="K29" t="s">
+        <v>265</v>
+      </c>
+      <c r="L29" t="s">
+        <v>266</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>244</v>
+      </c>
+      <c r="O29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>267</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>268</v>
+      </c>
+      <c r="J30" t="s">
+        <v>269</v>
+      </c>
+      <c r="K30" t="s">
+        <v>270</v>
+      </c>
+      <c r="L30" t="s">
+        <v>271</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>272</v>
+      </c>
+      <c r="O30" t="s">
+        <v>81</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>273</v>
+      </c>
+      <c r="X30" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>276</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>277</v>
+      </c>
+      <c r="J31" t="s">
+        <v>278</v>
+      </c>
+      <c r="K31" t="s">
+        <v>279</v>
+      </c>
+      <c r="L31" t="s">
+        <v>280</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>261</v>
+      </c>
+      <c r="O31" t="s">
+        <v>81</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>281</v>
+      </c>
+      <c r="X31" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>284</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>285</v>
+      </c>
+      <c r="J32" t="s">
+        <v>286</v>
+      </c>
+      <c r="K32" t="s">
+        <v>287</v>
+      </c>
+      <c r="L32" t="s">
+        <v>288</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>289</v>
+      </c>
+      <c r="O32" t="s">
+        <v>108</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>290</v>
+      </c>
+      <c r="X32" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>293</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>294</v>
+      </c>
+      <c r="J33" t="s">
+        <v>295</v>
+      </c>
+      <c r="K33" t="s">
+        <v>296</v>
+      </c>
+      <c r="L33" t="s">
+        <v>297</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>289</v>
+      </c>
+      <c r="O33" t="s">
+        <v>108</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>298</v>
+      </c>
+      <c r="X33" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>301</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>302</v>
+      </c>
+      <c r="J34" t="s">
+        <v>303</v>
+      </c>
+      <c r="K34" t="s">
+        <v>304</v>
+      </c>
+      <c r="L34" t="s">
+        <v>305</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>272</v>
+      </c>
+      <c r="O34" t="s">
+        <v>108</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>306</v>
+      </c>
+      <c r="X34" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>309</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>310</v>
+      </c>
+      <c r="J35" t="s">
+        <v>311</v>
+      </c>
+      <c r="K35" t="s">
+        <v>312</v>
+      </c>
+      <c r="L35" t="s">
+        <v>313</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>314</v>
+      </c>
+      <c r="X35" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>317</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>318</v>
+      </c>
+      <c r="J36" t="s">
+        <v>319</v>
+      </c>
+      <c r="K36" t="s">
+        <v>320</v>
+      </c>
+      <c r="L36" t="s">
+        <v>321</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>322</v>
+      </c>
+      <c r="O36" t="s">
+        <v>81</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>323</v>
+      </c>
+      <c r="X36" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>326</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>327</v>
+      </c>
+      <c r="J37" t="s">
+        <v>328</v>
+      </c>
+      <c r="K37" t="s">
+        <v>329</v>
+      </c>
+      <c r="L37" t="s">
+        <v>330</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>322</v>
+      </c>
+      <c r="O37" t="s">
+        <v>81</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>331</v>
+      </c>
+      <c r="X37" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>334</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>335</v>
+      </c>
+      <c r="J38" t="s">
+        <v>336</v>
+      </c>
+      <c r="K38" t="s">
+        <v>337</v>
+      </c>
+      <c r="L38" t="s">
+        <v>338</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>339</v>
+      </c>
+      <c r="O38" t="s">
+        <v>81</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>340</v>
+      </c>
+      <c r="X38" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>343</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>344</v>
+      </c>
+      <c r="J39" t="s">
+        <v>345</v>
+      </c>
+      <c r="K39" t="s">
+        <v>346</v>
+      </c>
+      <c r="L39" t="s">
+        <v>347</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>348</v>
+      </c>
+      <c r="O39" t="s">
+        <v>81</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>349</v>
+      </c>
+      <c r="X39" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>352</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>353</v>
+      </c>
+      <c r="J40" t="s">
+        <v>354</v>
+      </c>
+      <c r="K40" t="s">
+        <v>355</v>
+      </c>
+      <c r="L40" t="s">
+        <v>356</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>357</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>358</v>
+      </c>
+      <c r="X40" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>361</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>362</v>
+      </c>
+      <c r="J41" t="s">
+        <v>363</v>
+      </c>
+      <c r="K41" t="s">
+        <v>364</v>
+      </c>
+      <c r="L41" t="s">
+        <v>365</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>366</v>
+      </c>
+      <c r="O41" t="s">
+        <v>81</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>367</v>
+      </c>
+      <c r="X41" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>369</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_217.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_217.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="599">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,78 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/09/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r597723865-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107825</t>
+  </si>
+  <si>
+    <t>597723865</t>
+  </si>
+  <si>
+    <t>07/19/2018</t>
+  </si>
+  <si>
+    <t>Never again</t>
+  </si>
+  <si>
+    <t>The stay was horrible. The water was brown and there were dead roaches in the sink and smashed on the wall. The building has a old smell. No closet doors, curtains. And the drapes were old and dirty. It was the most uncomfortable night I have ever experienced. DON’T DO IT ! ! !MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded July 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2018</t>
+  </si>
+  <si>
+    <t>The stay was horrible. The water was brown and there were dead roaches in the sink and smashed on the wall. The building has a old smell. No closet doors, curtains. And the drapes were old and dirty. It was the most uncomfortable night I have ever experienced. DON’T DO IT ! ! !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r584930889-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>584930889</t>
+  </si>
+  <si>
+    <t>06/03/2018</t>
+  </si>
+  <si>
+    <t>The visit was pleasent.Ifelt right at home.I felt safe and secure.I also apreciated the fact that i was able to work out</t>
+  </si>
+  <si>
+    <t>had to make dinner since im not an all the time out to eat person.i was going to buy some paper plates until i seen the you guys supplied real plates was freaking awsome lol.silverware was included didnt have to make a move but in the kitchen after i went to the front desk.Eric and Shani took care of my daughter and i.we both felt welcomed.Thank You :):)MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded June 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2018</t>
+  </si>
+  <si>
+    <t>had to make dinner since im not an all the time out to eat person.i was going to buy some paper plates until i seen the you guys supplied real plates was freaking awsome lol.silverware was included didnt have to make a move but in the kitchen after i went to the front desk.Eric and Shani took care of my daughter and i.we both felt welcomed.Thank You :):)More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r567381238-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>107825</t>
-  </si>
-  <si>
     <t>567381238</t>
   </si>
   <si>
@@ -243,6 +303,60 @@
     <t>We had a Family vacation and it was very good. The hotel is very nice, about 20 to 30 min drive from all trip places. It have amenities that helps with your stay. I will definitely recommend and go again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r547350411-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>547350411</t>
+  </si>
+  <si>
+    <t>12/15/2017</t>
+  </si>
+  <si>
+    <t>Very nice staff</t>
+  </si>
+  <si>
+    <t>Everyone of the staff members were friendly and exceptionally helpful. I cannot say enough good things about them. From the front desk to the maintenance staff, each person was very accommodating.The property is getting older and does show signs of age.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded December 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2017</t>
+  </si>
+  <si>
+    <t>Everyone of the staff members were friendly and exceptionally helpful. I cannot say enough good things about them. From the front desk to the maintenance staff, each person was very accommodating.The property is getting older and does show signs of age.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r547283636-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>547283636</t>
+  </si>
+  <si>
+    <t>12/14/2017</t>
+  </si>
+  <si>
+    <t>Stayed here for a month in July 2017 for business. The staff was very accommodating. I was very pleased with the room.</t>
+  </si>
+  <si>
+    <t>I stayed here for a month in July 2017. I was very pleased with the room. It was a corner room. The staff was very accommodating and responsive. I would stay here again. I often used the pool. The location was convenient. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded December 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 15, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here for a month in July 2017. I was very pleased with the room. It was a corner room. The staff was very accommodating and responsive. I would stay here again. I often used the pool. The location was convenient. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r509325456-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -258,12 +372,6 @@
     <t>I was there for 6 months.  Excellent staff.  Very friendly. I would recommend this hotel to anyone stat8ng long term in Houston.   There is plenty of restaraunts nearby, and plenty to do in the area.  Otis close to the airport and located near the interstate for easy travel in and out of the area.MoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>00esa, General Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded August 6, 2017</t>
   </si>
   <si>
@@ -324,6 +432,57 @@
     <t>Husambis a bigot and racist who doesn't like women. Sam said I couldn't have towels because he didn't like me. Shani said I couldn't come ask for anything because she didn't like me. These people have absolutely no training and no professionalism. They are running a cess pool, not a hotel. If you want to be discriminated against and disrespected on a daily basis, by all means stay at this property. Shani is ALAWAYS stuffing her face and walking around barefoot. Sam should not be managing a hotel. He has zero problem resolution skills and has not been properly trained. He is not professional at all and he is very violent and aggressive. If I could have given this place a zero rating, I would have. Please don't go and spend your hard earned money at a place like this. Angela is very very messy and also very unprofessional. Angela is always saying your room number out loud in front of people, but she claims to have all these years of hotel experience. Whoever owns this place has a bunch of unprofessional bulies running this property, and it's going to lose them a bunch of money and clientele. I promise I'm going above and beyond to report this hotel and its employees but the right department. This place is Trash.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r498068159-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>498068159</t>
+  </si>
+  <si>
+    <t>07/02/2017</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>When I arrived early, I was unable to check in sooner and pay the additional days which was not favorable because I had to stay at another hotel in the mean time and my father couldn't help me move in. The area around it is unsafe, I wish they would have told me where "not" to go. Overall, the people working there were really nice and helped me with anything I needed. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded July 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2017</t>
+  </si>
+  <si>
+    <t>When I arrived early, I was unable to check in sooner and pay the additional days which was not favorable because I had to stay at another hotel in the mean time and my father couldn't help me move in. The area around it is unsafe, I wish they would have told me where "not" to go. Overall, the people working there were really nice and helped me with anything I needed. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r453905383-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>453905383</t>
+  </si>
+  <si>
+    <t>01/21/2017</t>
+  </si>
+  <si>
+    <t>great stay</t>
+  </si>
+  <si>
+    <t>Very nice staff especially Nikki and Sam! Very accommodating and helpful. Feels like a home away from home at a reasonable price. I felt safe with the night time security. I was going through a very difficult transition, my stay at this location made my transition a little easierMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded January 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2017</t>
+  </si>
+  <si>
+    <t>Very nice staff especially Nikki and Sam! Very accommodating and helpful. Feels like a home away from home at a reasonable price. I felt safe with the night time security. I was going through a very difficult transition, my stay at this location made my transition a little easierMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r446426307-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -339,12 +498,6 @@
     <t>I chose this facility due to the location. I have remained as I have found that this ESA meets or exceeds all of my requirements for an extended stay.  The entire staff go out of their way to see that my stay is comfortable.  Any minor problems that have arisen have been taken care of immediately and to my satisfaction.  I would recommend this facility for both short and long term stays.  A complimentary daily  "grab and go" breakfast bar is provided.</t>
   </si>
   <si>
-    <t>December 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r438746978-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -396,6 +549,60 @@
     <t>Terrible. Front desk lady was nice. Bed was uncomfortable. Fleas in the laundry room. Room was HOT upon arrival. I booked it on priceline because it was considered a 2.5 star hotel. Ummmm.... Nope! Free breakfast???? Coffee and prepackaged muffins and granola bars. This was unacceptable. I'm disappointed in priceline. This was the first time I've ever had bad luck with their express deals.  Also, this hotel requires a $100 deposit. Very disappointing!!!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r388596561-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>388596561</t>
+  </si>
+  <si>
+    <t>07/02/2016</t>
+  </si>
+  <si>
+    <t>Fantastic Customer Service BUT!!!!</t>
+  </si>
+  <si>
+    <t>If this review was based only on customer service it would rate a 5 plus. The management, Scott at the front desk are excellent. They worked with me when I had to speak to priceline for a refund, but I'll get to that in a minute.The rooms are large, refrigerator and microwave. This is the best part of hotel. Upon arrival the entrance is not very appealing however you can overlook that. The breakfast is just coffee, muffins and garnola bars but do remember you have a refrigerator, microwave and stove in the room. The problem is not the management but I think it is the corporate office. There were hair in the bath tub, the carpet had spots and more important the room had roaches.How can a company have excellent employess but don't supply them any help!!!Based on the look and other problems, I would keep on going!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded July 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2016</t>
+  </si>
+  <si>
+    <t>If this review was based only on customer service it would rate a 5 plus. The management, Scott at the front desk are excellent. They worked with me when I had to speak to priceline for a refund, but I'll get to that in a minute.The rooms are large, refrigerator and microwave. This is the best part of hotel. Upon arrival the entrance is not very appealing however you can overlook that. The breakfast is just coffee, muffins and garnola bars but do remember you have a refrigerator, microwave and stove in the room. The problem is not the management but I think it is the corporate office. There were hair in the bath tub, the carpet had spots and more important the room had roaches.How can a company have excellent employess but don't supply them any help!!!Based on the look and other problems, I would keep on going!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r373150822-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>373150822</t>
+  </si>
+  <si>
+    <t>05/15/2016</t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>Not satisfied was falsely accused didn't have kitchen utensils was charged for a smoking which I could afford being disabled and on monthly income. Called hotel  and was given runaround about the smoking chargeMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded May 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2016</t>
+  </si>
+  <si>
+    <t>Not satisfied was falsely accused didn't have kitchen utensils was charged for a smoking which I could afford being disabled and on monthly income. Called hotel  and was given runaround about the smoking chargeMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r360226173-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -477,6 +684,57 @@
     <t>The room was ready on time. I was clean and had everything I requested. I was there for 7 weeks. The staff was great. The manager Sam always had a smile on his face and ready to meet the needs of the guest. The front desk personal were great. Mrs. Patsy was a great person to be around. It did not matter what kind of mood you where in by the time she was done with you, you were laughing and enjoying life again. Mr. Scott on the night shift was also great, he was very kind and attentive to the needs of the guest. I will stay here anytime I am in the Houston area!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r334521014-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>334521014</t>
+  </si>
+  <si>
+    <t>12/22/2015</t>
+  </si>
+  <si>
+    <t>The smell, oh Gosh, the smell!</t>
+  </si>
+  <si>
+    <t>It's very hard for me to rate this property.  One one hand, my artistic side enjoyed meeting all the different people I met at the laundry room.  Lots of decent, hard working people who come from far away to get a decent job in Houston to then return home on the weekends and who do not mind sharing their stories.  On the other hand I have to warn you fellow traveler about the pitfalls.  The smell in this property is pungent, it is a mixture of cigarettes and old food.  You feel it the moment you exit the reception area.  You feel it in the corridor and you go to your room, and it is there to welcome you the moment you enter the room.  They should strip all the carpets and burn them.  I did not feel safe in the area and your key is required to enter the property at all times.  Some of the staff are rude, some are the best.    It was a great deal, I paid very little but I don't think I'll be coming back.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded December 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2015</t>
+  </si>
+  <si>
+    <t>It's very hard for me to rate this property.  One one hand, my artistic side enjoyed meeting all the different people I met at the laundry room.  Lots of decent, hard working people who come from far away to get a decent job in Houston to then return home on the weekends and who do not mind sharing their stories.  On the other hand I have to warn you fellow traveler about the pitfalls.  The smell in this property is pungent, it is a mixture of cigarettes and old food.  You feel it the moment you exit the reception area.  You feel it in the corridor and you go to your room, and it is there to welcome you the moment you enter the room.  They should strip all the carpets and burn them.  I did not feel safe in the area and your key is required to enter the property at all times.  Some of the staff are rude, some are the best.    It was a great deal, I paid very little but I don't think I'll be coming back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r331443537-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>331443537</t>
+  </si>
+  <si>
+    <t>12/08/2015</t>
+  </si>
+  <si>
+    <t>No Refund Over Shorten Stay</t>
+  </si>
+  <si>
+    <t>I reserved a room for six days and prepaid for those six days at check in.  Because of my work schedule, I had to check out after two nights.  It took me over one hour at check out to get the front desk staff to credit the refund for the remaining four days, as if they have never done this refund process before.  Not surprisingly, this credit has still not shown on my credit card account!!!  This refund should have been as instantaneous as was the debit from my card.I find it very disappointing that your company requires prepayment at check in.  Is it because your guest are so irresponsible that you cannot trust in their payment at check out like all the other major hotels?  This is not a third world country.Because this credit to my card is still not accomplished and this problem will still take more of my time, I will avoid this hotel and not recommend it to anyone I know.Regretfully, James H.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded December 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2015</t>
+  </si>
+  <si>
+    <t>I reserved a room for six days and prepaid for those six days at check in.  Because of my work schedule, I had to check out after two nights.  It took me over one hour at check out to get the front desk staff to credit the refund for the remaining four days, as if they have never done this refund process before.  Not surprisingly, this credit has still not shown on my credit card account!!!  This refund should have been as instantaneous as was the debit from my card.I find it very disappointing that your company requires prepayment at check in.  Is it because your guest are so irresponsible that you cannot trust in their payment at check out like all the other major hotels?  This is not a third world country.Because this credit to my card is still not accomplished and this problem will still take more of my time, I will avoid this hotel and not recommend it to anyone I know.Regretfully, James H.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r329846435-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -552,6 +810,54 @@
     <t>Clean, comfortable suite ( no bugs). Professional staff that is very attentive !Great value for the dollar. Very well kept and landscaped. Pet friendly with excellent air conditioning. A front desk staff that is very professional !More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r302331395-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>302331395</t>
+  </si>
+  <si>
+    <t>08/22/2015</t>
+  </si>
+  <si>
+    <t>exceptional customer service, clean and conveint</t>
+  </si>
+  <si>
+    <t>The customer service started before I even arrived. And I must say it continued even after I checked out. Staff was very friendly. The rooms were clean and the bed was comfortable. Felt like home away from home. I can't wait to revisit the next time I'm in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded September 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2015</t>
+  </si>
+  <si>
+    <t>The customer service started before I even arrived. And I must say it continued even after I checked out. Staff was very friendly. The rooms were clean and the bed was comfortable. Felt like home away from home. I can't wait to revisit the next time I'm in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r299600696-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>299600696</t>
+  </si>
+  <si>
+    <t>08/15/2015</t>
+  </si>
+  <si>
+    <t>Well Done!!</t>
+  </si>
+  <si>
+    <t>Home away from home.. This should say it all. This hotel feels just like home. The management to the house keepers. Patsy and Scott make me truly feel special. I am new to the area, and seeking to purchase a new home. Due to current market conditions, I am in no hurry. Service here far exceeds most other hotels, even some 5 star locations. I would recommend this Extended Stay to everyone..JohnMoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded August 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 27, 2015</t>
+  </si>
+  <si>
+    <t>Home away from home.. This should say it all. This hotel feels just like home. The management to the house keepers. Patsy and Scott make me truly feel special. I am new to the area, and seeking to purchase a new home. Due to current market conditions, I am in no hurry. Service here far exceeds most other hotels, even some 5 star locations. I would recommend this Extended Stay to everyone..JohnMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r275859744-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -615,6 +921,54 @@
     <t>Many of you know me as frequent traveller, contributor as well as guest of several Extended Stay's around the nation. While I got a really good rate at this place, I can not recommend to stay here. Place is terrible and reminds me on cheap motel in India's Calcutta Area. Staff (especially Scott) is really lazy and can't be bothered with anything. Room smells and is certainly not clean. There is a security car parked outside overnight keeping blue and white strobe lights on. Petrol Station and Mc Donald's around there need to be avoided. Actually, if possible avoid the area at all and pay a little more to get a better room. Wont be coming back and did not feel safe either. Good bye !More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r240551281-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>240551281</t>
+  </si>
+  <si>
+    <t>11/19/2014</t>
+  </si>
+  <si>
+    <t>Good value for money!</t>
+  </si>
+  <si>
+    <t>Overall experience was good. Customer service (front desk Patsy/Scott) were excellent. Only negative, shower was not as clean as it should've been. Looked as if someone rushed to clean. I would recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded November 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2014</t>
+  </si>
+  <si>
+    <t>Overall experience was good. Customer service (front desk Patsy/Scott) were excellent. Only negative, shower was not as clean as it should've been. Looked as if someone rushed to clean. I would recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r239668088-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>239668088</t>
+  </si>
+  <si>
+    <t>11/13/2014</t>
+  </si>
+  <si>
+    <t>Spend $10 more for a better place</t>
+  </si>
+  <si>
+    <t>No free wi-fi as advertised. They use some lame $4.99 service. As leaving a mouse was seen in the room. I wouldn't stayed if that happened on arrival. There were only breakfast snacks as FREE breakfast. No real breakfast. Book somewhere else that is more honest about free wi-fi or breakfast. Priceline sucks!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded November 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 19, 2014</t>
+  </si>
+  <si>
+    <t>No free wi-fi as advertised. They use some lame $4.99 service. As leaving a mouse was seen in the room. I wouldn't stayed if that happened on arrival. There were only breakfast snacks as FREE breakfast. No real breakfast. Book somewhere else that is more honest about free wi-fi or breakfast. Priceline sucks!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r232009415-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -681,6 +1035,54 @@
     <t>Made reservation on Priceline so didn't know what we would get. Greeted by a nice front desk lady. Room/suite large, clean &amp; comfy, nice kitchen (we didn't use it though). Only problems were no wash cloths, just towels, in bath and even worse NO ice machine. Fridge &amp; freezer in room kitchen &amp; EMPTY ice trays in freezer but no ice available anyplace in hotel. Otherwise, nice place. Just bring your own ice &amp; washcloth.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r209428764-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>209428764</t>
+  </si>
+  <si>
+    <t>06/08/2014</t>
+  </si>
+  <si>
+    <t>Expect unwelcoming front end staff</t>
+  </si>
+  <si>
+    <t>If you are expecting hospitality stay anywhere else. After 18 hours on the road and a 21/2 hour wait in 100 degree heat in their lot for my room, mgr and staff did nothing to get me in my room, said it was not ready so I waited to be notified they never did and to top it off they had rooms available. This was told to me by a hotel maintenance person. Worst front end staff and mgr of all extended stays I have ever encountered. Period. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded June 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2014</t>
+  </si>
+  <si>
+    <t>If you are expecting hospitality stay anywhere else. After 18 hours on the road and a 21/2 hour wait in 100 degree heat in their lot for my room, mgr and staff did nothing to get me in my room, said it was not ready so I waited to be notified they never did and to top it off they had rooms available. This was told to me by a hotel maintenance person. Worst front end staff and mgr of all extended stays I have ever encountered. Period. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r206633182-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>206633182</t>
+  </si>
+  <si>
+    <t>05/22/2014</t>
+  </si>
+  <si>
+    <t>Booked this on Hotwire so I didn't know what hotel I would get.  Was in Houston on personal business, have never had an issue booking a hotel last minute on Hotwire.  Bathroom wasn't clean, black hair on the toilet, rest of room was reasonably clean.  Manager seemed like he hated his job.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded May 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2014</t>
+  </si>
+  <si>
+    <t>Booked this on Hotwire so I didn't know what hotel I would get.  Was in Houston on personal business, have never had an issue booking a hotel last minute on Hotwire.  Bathroom wasn't clean, black hair on the toilet, rest of room was reasonably clean.  Manager seemed like he hated his job.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r206193490-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -723,9 +1125,6 @@
     <t>The hotel itself was a wonderful find. we had plenty of room, the beds were comfortable, and the room was clean. We loved having the option of the couch with a pullout for our son. Our 2 year old doesn't normally sleep wel in hotels, but he slept the whole night. Now for my gripes. This hotel was supposed to be in the area of the George Bush airport. After an almost $30 cab ride (both to and from the airport), we realized that it was not. If you need easy access to IAH, do NOT book this hotel. Also, when I see breakfast served, I think a full breakfast, but this was more of a continental breakfast. We ate granola bars and muffins which we could`ve brought from home. Overall, we were very happy with our stay.MoreShow less</t>
   </si>
   <si>
-    <t>March 2014</t>
-  </si>
-  <si>
     <t>Manager_11525, Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded April 23, 2014</t>
   </si>
   <si>
@@ -753,6 +1152,51 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r191214628-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>191214628</t>
+  </si>
+  <si>
+    <t>01/18/2014</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>I got a really large room and it was very clean. Free breakfast available (grab and go). High speed Internet service was okay. Overall good value.Kitchen was well equipped. Excellent, very friendly staff. Highly recommended.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r183325320-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>183325320</t>
+  </si>
+  <si>
+    <t>11/02/2013</t>
+  </si>
+  <si>
+    <t>Excellent staff</t>
+  </si>
+  <si>
+    <t>Good place to stay that is safe and secure in area close to the airport.  Extended stay is comparable to a nice apartment with kitchenette, pots/pans, housekeeping, free coffee &amp; breakfast bars.  Hotel shows its age but the Staff is really friendly and efficient.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded November 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2013</t>
+  </si>
+  <si>
+    <t>Good place to stay that is safe and secure in area close to the airport.  Extended stay is comparable to a nice apartment with kitchenette, pots/pans, housekeeping, free coffee &amp; breakfast bars.  Hotel shows its age but the Staff is really friendly and efficient.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r176118968-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -802,6 +1246,68 @@
   </si>
   <si>
     <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r171926109-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>171926109</t>
+  </si>
+  <si>
+    <t>08/12/2013</t>
+  </si>
+  <si>
+    <t>Dirty room</t>
+  </si>
+  <si>
+    <t>The room was dirty - floor in the kitchen area has not been swept or washed for weeks probably with a visible layer of dust and lint, stove was dirty,  fridge was not cleaned properly, bathtub was far from clean and the water was dripping. I actually worked in hotel business including housekeeping and here the cleaning standard is obviously pretty low.
+The curtain in the closet was broken, hanging on the side; the armchair was completely asymmetrical (one angle of its back was much higher than the other); there was visible left over of old painting in the bathroom near the mirror.
+The internet speed was so slow, the webpage would open after about 2 min wait, had to use our phones instead.
+Kitchen is less than basic: no cooking knife (just a steak knife), no garbage disposal, no dish liquid, no sponge, no kitchen garbage bags.
+No shampoo/conditioner in the bathroom, just a shamefully tiny round piece of soap which leaves scum on your hands. 
+The curtains fly up when you turn on the AC by the window, no central AC unit. 
+The area is not safe and you actually are reminded of that.... 
+We stayed at Staybridge (May 2013) for $5 more per night in a safe location where it was impeccably clean and stacked with everything. This room was just a dirty cheap motel room with a stove and fridge which weren't even clean... Overpriced and...The room was dirty - floor in the kitchen area has not been swept or washed for weeks probably with a visible layer of dust and lint, stove was dirty,  fridge was not cleaned properly, bathtub was far from clean and the water was dripping. I actually worked in hotel business including housekeeping and here the cleaning standard is obviously pretty low.The curtain in the closet was broken, hanging on the side; the armchair was completely asymmetrical (one angle of its back was much higher than the other); there was visible left over of old painting in the bathroom near the mirror.The internet speed was so slow, the webpage would open after about 2 min wait, had to use our phones instead.Kitchen is less than basic: no cooking knife (just a steak knife), no garbage disposal, no dish liquid, no sponge, no kitchen garbage bags.No shampoo/conditioner in the bathroom, just a shamefully tiny round piece of soap which leaves scum on your hands. The curtains fly up when you turn on the AC by the window, no central AC unit. The area is not safe and you actually are reminded of that.... We stayed at Staybridge (May 2013) for $5 more per night in a safe location where it was impeccably clean and stacked with everything. This room was just a dirty cheap motel room with a stove and fridge which weren't even clean... Overpriced and overhyped. too bad staybridge decided to double their price lately... The only thing that was great was the front desk clerks - Ashley and Joyce. Ashley is the best front desk person that we have ever dealt with - taking her time to actually welcome you in a very professional and friendly manner.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded August 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 20, 2013</t>
+  </si>
+  <si>
+    <t>The room was dirty - floor in the kitchen area has not been swept or washed for weeks probably with a visible layer of dust and lint, stove was dirty,  fridge was not cleaned properly, bathtub was far from clean and the water was dripping. I actually worked in hotel business including housekeeping and here the cleaning standard is obviously pretty low.
+The curtain in the closet was broken, hanging on the side; the armchair was completely asymmetrical (one angle of its back was much higher than the other); there was visible left over of old painting in the bathroom near the mirror.
+The internet speed was so slow, the webpage would open after about 2 min wait, had to use our phones instead.
+Kitchen is less than basic: no cooking knife (just a steak knife), no garbage disposal, no dish liquid, no sponge, no kitchen garbage bags.
+No shampoo/conditioner in the bathroom, just a shamefully tiny round piece of soap which leaves scum on your hands. 
+The curtains fly up when you turn on the AC by the window, no central AC unit. 
+The area is not safe and you actually are reminded of that.... 
+We stayed at Staybridge (May 2013) for $5 more per night in a safe location where it was impeccably clean and stacked with everything. This room was just a dirty cheap motel room with a stove and fridge which weren't even clean... Overpriced and...The room was dirty - floor in the kitchen area has not been swept or washed for weeks probably with a visible layer of dust and lint, stove was dirty,  fridge was not cleaned properly, bathtub was far from clean and the water was dripping. I actually worked in hotel business including housekeeping and here the cleaning standard is obviously pretty low.The curtain in the closet was broken, hanging on the side; the armchair was completely asymmetrical (one angle of its back was much higher than the other); there was visible left over of old painting in the bathroom near the mirror.The internet speed was so slow, the webpage would open after about 2 min wait, had to use our phones instead.Kitchen is less than basic: no cooking knife (just a steak knife), no garbage disposal, no dish liquid, no sponge, no kitchen garbage bags.No shampoo/conditioner in the bathroom, just a shamefully tiny round piece of soap which leaves scum on your hands. The curtains fly up when you turn on the AC by the window, no central AC unit. The area is not safe and you actually are reminded of that.... We stayed at Staybridge (May 2013) for $5 more per night in a safe location where it was impeccably clean and stacked with everything. This room was just a dirty cheap motel room with a stove and fridge which weren't even clean... Overpriced and overhyped. too bad staybridge decided to double their price lately... The only thing that was great was the front desk clerks - Ashley and Joyce. Ashley is the best front desk person that we have ever dealt with - taking her time to actually welcome you in a very professional and friendly manner.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r163820263-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>163820263</t>
+  </si>
+  <si>
+    <t>06/12/2013</t>
+  </si>
+  <si>
+    <t>Good Value, nice property</t>
+  </si>
+  <si>
+    <t>Stayed at this Extended Stay location for the first time. Have also stayed at another Houston Extended Stay in Houston. This one is  better. Newly remodeled, active management, decent fitness room, even a nice pool. Haven't tried their breakfast, I have my own food in my room with full size frig, 4 burner stove with oven, nice kitchen counters, plates, silverware, 1 pot and one covered skillet. Needs a roasting pan to use in the oven. Pool needs pool chairs. Convenient location to airport and Greenspoint area. I was here to attend a business conference held about 2 miles away. Lots of restaurants nearby. Rooms have good, new carpet, new sofa, easy chair, coffee table, business table with 2 chairs, good king sized bed. Good decent sized screen TV, 2 chest of drawers, good plumbing and shower fixtures in bathroom. Needs more hangers in closet. Bigger room than most hotel rooms. Can stay here for a day or a month or more, whatever you need. Can trade in towels for clean ones whenever you want. Room comes with 3 sets of towels plus a set of kitchen towels. Grounds well kept. Security guard at night. Plenty of free parking. Great access to Interstate 45, but rooms fairly quietMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Stayed at this Extended Stay location for the first time. Have also stayed at another Houston Extended Stay in Houston. This one is  better. Newly remodeled, active management, decent fitness room, even a nice pool. Haven't tried their breakfast, I have my own food in my room with full size frig, 4 burner stove with oven, nice kitchen counters, plates, silverware, 1 pot and one covered skillet. Needs a roasting pan to use in the oven. Pool needs pool chairs. Convenient location to airport and Greenspoint area. I was here to attend a business conference held about 2 miles away. Lots of restaurants nearby. Rooms have good, new carpet, new sofa, easy chair, coffee table, business table with 2 chairs, good king sized bed. Good decent sized screen TV, 2 chest of drawers, good plumbing and shower fixtures in bathroom. Needs more hangers in closet. Bigger room than most hotel rooms. Can stay here for a day or a month or more, whatever you need. Can trade in towels for clean ones whenever you want. Room comes with 3 sets of towels plus a set of kitchen towels. Grounds well kept. Security guard at night. Plenty of free parking. Great access to Interstate 45, but rooms fairly quietMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r160383321-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
@@ -872,6 +1378,57 @@
     <t>My stay here has been very relaxing on my days off.  A warm, safe place to stay.  Never worried about the time of day or night coming and going from work or a night out at the Houston Symphony because there are guards here at night.   The staff here including Ashley, Scott, Abraham, George, Patsy, Haydee and Annabelle have been very kind and welcoming.  Examples include extra towels &amp; any other needs at any time day or night, to pulling up maps for destinations I was interested in seeing while I have been here.  I recommend this hotel especially to those who will be working here on a temporary assignment and need a home away from home including a full kitchen.  It has been very nice to only have to do my personal shopping and laundry while here as ESA takes care of every thing else that needs cleaning.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r155299676-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155299676</t>
+  </si>
+  <si>
+    <t>03/21/2013</t>
+  </si>
+  <si>
+    <t>Everything about my stay was wonderful</t>
+  </si>
+  <si>
+    <t>I've stayed at a lot of hotels and motels and I must say this one is one of the best for the price under 70 bucks a night you get 5 star service Patsie at the front desk goes above and beyond  always with a warm smile,Abraham is very nice he goes out of his way to make sure you are well taken care of .Goerge is maintenance I believe but he does so much more for you always with a smile and haydee the housekeeper so friendly and really takes pride in her work if you are in this area check them out you won't be disappointed at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded March 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2013</t>
+  </si>
+  <si>
+    <t>I've stayed at a lot of hotels and motels and I must say this one is one of the best for the price under 70 bucks a night you get 5 star service Patsie at the front desk goes above and beyond  always with a warm smile,Abraham is very nice he goes out of his way to make sure you are well taken care of .Goerge is maintenance I believe but he does so much more for you always with a smile and haydee the housekeeper so friendly and really takes pride in her work if you are in this area check them out you won't be disappointed at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r154363943-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154363943</t>
+  </si>
+  <si>
+    <t>03/12/2013</t>
+  </si>
+  <si>
+    <t>Great Updated Hotel</t>
+  </si>
+  <si>
+    <t>I had the pleasure to stay at this location for several weeks and it was wonderful. The management and staff was professional and the area was quiet. The rooms were clean,my family and I felt like we were at home. The space was just right, If you are in the area stay here and enjoy a clean quiet hotel experience!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded March 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2013</t>
+  </si>
+  <si>
+    <t>I had the pleasure to stay at this location for several weeks and it was wonderful. The management and staff was professional and the area was quiet. The rooms were clean,my family and I felt like we were at home. The space was just right, If you are in the area stay here and enjoy a clean quiet hotel experience!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r152122985-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -887,9 +1444,6 @@
     <t>I'm am relocating from Chicago to the Houston area, and I have stayed at numerous hotels across The United States of America, in my 51 years!  Up to now I always thought that Marriott, was the best, I even stayed at one Marriott in Findlay Ohio for 10 months.  I wist that I would have known about extended Stay America then.  The suite that I am staying in is just like the Marriott suite I lived in before, except the cost is about 75% less than I paid for the Marriott.  From the moment that I arrived, it has been wonderful, Patsy checked me in and she is so knowledgeable as far as the best rates and quick and sweet.  The Manager Abraham also assisted with my reservation for the best rate possible.  Both of them always greet me morning, noon and night, they seem so upbeat and positive, that it gives me a very good feeling every-time I see them it puts a big smile on my face. Steven MartinMoreShow less</t>
   </si>
   <si>
-    <t>February 2013</t>
-  </si>
-  <si>
     <t>Saints01Houston, Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded February 18, 2013</t>
   </si>
   <si>
@@ -947,13 +1501,58 @@
     <t>Was Greeted By A werry good welcome too Extended stay  By Patsy Aldridge And had the manager abriham call too make sure my room was in order. And the room was Verry clean  and everything worked perfect. The entire Staff has made sure my stay has been great  even security told me was watching after my trk   wow how nice   thanks extended stay for a great stay      James SpicerMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r150880145-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150880145</t>
+  </si>
+  <si>
+    <t>01/28/2013</t>
+  </si>
+  <si>
+    <t>Wonderful staff and newly renovated.</t>
+  </si>
+  <si>
+    <t>This is a nice simple place with a great group of people working to make your stay comfortable. I've been working on and off in Houston for months now, but I always come back here. There's coffee and muffins every morning and a nice laundromat on the ground floor.MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded January 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2013</t>
+  </si>
+  <si>
+    <t>This is a nice simple place with a great group of people working to make your stay comfortable. I've been working on and off in Houston for months now, but I always come back here. There's coffee and muffins every morning and a nice laundromat on the ground floor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r149916360-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>149916360</t>
+  </si>
+  <si>
+    <t>01/17/2013</t>
+  </si>
+  <si>
+    <t>This hotel wasn't my first choice, but I was very pleased with my stay.</t>
+  </si>
+  <si>
+    <t>I am a travel nurse and my agency set up my housing at this hotel. It wasn't my first choice, but I was pleased with my stay. Ms. Pasty at the front desk was extra nice and went beyond the call of duty to solve an problems that I encountered. The only thing that would have made my stay better was if they had a hot breakfast instead of the granola bars, fruit, and muffins.MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded January 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2013</t>
+  </si>
+  <si>
+    <t>I am a travel nurse and my agency set up my housing at this hotel. It wasn't my first choice, but I was pleased with my stay. Ms. Pasty at the front desk was extra nice and went beyond the call of duty to solve an problems that I encountered. The only thing that would have made my stay better was if they had a hot breakfast instead of the granola bars, fruit, and muffins.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r149898095-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
     <t>149898095</t>
-  </si>
-  <si>
-    <t>01/17/2013</t>
   </si>
   <si>
     <t>Great stay home away from home</t>
@@ -1030,6 +1629,57 @@
     <t>What a transformation!Having stayed at this property prior, I was really impressed by the renovative transformation. I find it has been transformed to a very modern and upscale hotel setting. I got to say I’m loving the décor, the contrasting colour scheme, and the general warmth of the place, the attention to detail just makes you feel the rates are a steal. Absolute value for money!But that’s not even the best part for me, it is the customer service I couldn’t praise highly enough.Having stayed for a few weeks I got to know the staff and have to say it was most pleasant experience. Patsy couldn’t be more helpful, the lady is an absolutely star,Shirely is simply delightful, Scott I find is supremely courteous, and I’m yet to meet a more diligent housekeeping staff than theirs.If you’re considering a really decent place to stay north of Houston I reckon you couldn’t go far wrong with this one. I'd say it is a kinda of a half way house between a chic hotel and a trendy  executive serviced apartment geared mostly (though not exclusively) for mid-long stay types or family/business trips, but staffed by a great set of people with impeccably commendable customer service skills.For the quality of facilities, the customer service and value for money, I'd highly recommend this hotel any time.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r147148689-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147148689</t>
+  </si>
+  <si>
+    <t>12/10/2012</t>
+  </si>
+  <si>
+    <t>Horrible customer service</t>
+  </si>
+  <si>
+    <t>With holidays right around the corner and needed to reserve a few rooms can become a headache! The last thing one needs is a feisty, bad attitude, rude representative hanging up on you!!!! Then not answering when calling back. I find that rude and very unprofessional. The representative named Patsy does NOT need to be working the phones or greeting guests if that is her position. If this is the service that I receive over the phone, I can only imagine the service during our stay, I won't be taking that chance. Thanks but no thank. I will take my business elsewhere where having a guest is appreciated.MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded December 18, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 18, 2012</t>
+  </si>
+  <si>
+    <t>With holidays right around the corner and needed to reserve a few rooms can become a headache! The last thing one needs is a feisty, bad attitude, rude representative hanging up on you!!!! Then not answering when calling back. I find that rude and very unprofessional. The representative named Patsy does NOT need to be working the phones or greeting guests if that is her position. If this is the service that I receive over the phone, I can only imagine the service during our stay, I won't be taking that chance. Thanks but no thank. I will take my business elsewhere where having a guest is appreciated.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r146954960-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>146954960</t>
+  </si>
+  <si>
+    <t>12/07/2012</t>
+  </si>
+  <si>
+    <t>Great place to Stay for long period</t>
+  </si>
+  <si>
+    <t>We r been here since 5 months , its really nice and comfort place to stay for longer period..Hotel management is so friendly and polite...we never face any problem here during our stay.. very secured n night time security guard is available all the time..Large rooms really I stayed  in extended stay hotels previously but never seen such a big rooms in any other hotels..All are renovated rooms and very nice comfy beds..Its really cool place ..All Staff and room service people are friendly and they do the fantastic job all the time..MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded December 8, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 8, 2012</t>
+  </si>
+  <si>
+    <t>We r been here since 5 months , its really nice and comfort place to stay for longer period..Hotel management is so friendly and polite...we never face any problem here during our stay.. very secured n night time security guard is available all the time..Large rooms really I stayed  in extended stay hotels previously but never seen such a big rooms in any other hotels..All are renovated rooms and very nice comfy beds..Its really cool place ..All Staff and room service people are friendly and they do the fantastic job all the time..More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r146314108-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -1109,6 +1759,57 @@
   </si>
   <si>
     <t>Extended Stay- Greenspoint-Houston is the most comfy place to stay.there is no exaggeration if I say This is The Place where you are just as comfortable and content as if you were home.       We have been here for last two weeks and are going to be here for another two weeks. The staff members are courteous,friendly and very helpful.Especially Abraham,Patsy,Shirley,Sean,Jorge and Haydee.They are fantastic.       We highly recommend this place to everyone who is looking for  comforts of home when they are away from home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r144692196-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>144692196</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel for over 7 months and will stay for an indeterminate amount of time.  In that time the hotel has been remodeled, and it is absolutely beautiful.  The staff is exceptional, including Jorge, Sean, Shirley, Patsy, Abraham and the cleaning staff (who cleans the room just like you would), Haydee and Anabel.  I would like to thank the staff for their help while I am at the hotel.  The fact that they allow my dog is absolutely wonderful.  Thank you all.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded November 7, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2012</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel for over 7 months and will stay for an indeterminate amount of time.  In that time the hotel has been remodeled, and it is absolutely beautiful.  The staff is exceptional, including Jorge, Sean, Shirley, Patsy, Abraham and the cleaning staff (who cleans the room just like you would), Haydee and Anabel.  I would like to thank the staff for their help while I am at the hotel.  The fact that they allow my dog is absolutely wonderful.  Thank you all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r141424743-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>141424743</t>
+  </si>
+  <si>
+    <t>09/27/2012</t>
+  </si>
+  <si>
+    <t>Very Accommodating Staff</t>
+  </si>
+  <si>
+    <t>I've been with this extended stay hosing solution for seven weeks and could not be more pleased.  The residence has been under renovation during my stay and is nearing completion and looks wonderful.  The staff is courteous and attentive to guest needs and requests; including   * Removal of undesired furniture   * Relocation to a renovated room of my choice   * No hassle printing of documents @ the front desk   * Extremely timely maintenance   * Excellent housekeeping   * They even helped me move between rooms!Anything I have requested has been promptly and satisfactorily attended to.  Highly recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - I-45 North, responded to this reviewResponded October 1, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2012</t>
+  </si>
+  <si>
+    <t>I've been with this extended stay hosing solution for seven weeks and could not be more pleased.  The residence has been under renovation during my stay and is nearing completion and looks wonderful.  The staff is courteous and attentive to guest needs and requests; including   * Removal of undesired furniture   * Relocation to a renovated room of my choice   * No hassle printing of documents @ the front desk   * Extremely timely maintenance   * Excellent housekeeping   * They even helped me move between rooms!Anything I have requested has been promptly and satisfactorily attended to.  Highly recommended.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107825-r138607864-Extended_Stay_America_Houston_I_45_North-Houston_Texas.html</t>
@@ -1670,7 +2371,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1678,22 +2379,12 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2</v>
-      </c>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
-      <c r="S2" t="n">
-        <v>5</v>
-      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1747,25 +2438,29 @@
         <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -1781,7 +2476,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1790,43 +2485,53 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
@@ -1842,7 +2547,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1851,53 +2556,43 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>81</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
@@ -1913,7 +2608,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1922,47 +2617,43 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>3</v>
-      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>1</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="X6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
@@ -1978,7 +2669,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1987,53 +2678,43 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O7" t="s">
-        <v>81</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>1</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="X7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
@@ -2049,7 +2730,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2058,45 +2739,43 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O8" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>110</v>
+      </c>
+      <c r="X8" t="s">
+        <v>111</v>
+      </c>
       <c r="Y8" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
@@ -2112,7 +2791,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2121,43 +2800,53 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="J9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K9" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="L9" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="O9" t="s">
-        <v>81</v>
-      </c>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="X9" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Y9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
@@ -2173,7 +2862,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2182,43 +2871,47 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L10" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="X10" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Y10" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
@@ -2234,7 +2927,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2243,49 +2936,53 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="J11" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K11" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O11" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="P11" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="X11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Y11" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12">
@@ -2301,7 +2998,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2310,49 +3007,53 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J12" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K12" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L12" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>134</v>
+      </c>
+      <c r="O12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
         <v>4</v>
       </c>
-      <c r="N12" t="s">
-        <v>140</v>
-      </c>
-      <c r="O12" t="s">
-        <v>81</v>
-      </c>
-      <c r="P12" t="n">
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" t="n">
         <v>4</v>
       </c>
-      <c r="Q12" t="n">
-        <v>3</v>
-      </c>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="X12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Y12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13">
@@ -2368,7 +3069,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2377,31 +3078,31 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L13" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O13" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
-      <c r="R13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
       <c r="S13" t="n">
         <v>5</v>
       </c>
@@ -2413,13 +3114,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="X13" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y13" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14">
@@ -2435,7 +3136,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2444,43 +3145,45 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J14" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O14" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>158</v>
-      </c>
-      <c r="X14" t="s">
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
         <v>159</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15">
@@ -2496,7 +3199,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2505,36 +3208,32 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
+        <v>161</v>
+      </c>
+      <c r="J15" t="s">
         <v>162</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>163</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>164</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
         <v>165</v>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="s">
-        <v>149</v>
-      </c>
       <c r="O15" t="s">
-        <v>81</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>1</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
@@ -2582,37 +3281,31 @@
         <v>173</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="O16" t="s">
-        <v>81</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="n">
-        <v>4</v>
-      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
+        <v>174</v>
+      </c>
+      <c r="X16" t="s">
         <v>175</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>176</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="17">
@@ -2628,7 +3321,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2637,34 +3330,34 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
+        <v>178</v>
+      </c>
+      <c r="J17" t="s">
         <v>179</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>180</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>181</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
         <v>182</v>
       </c>
-      <c r="M17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s">
-        <v>183</v>
-      </c>
       <c r="O17" t="s">
-        <v>81</v>
-      </c>
-      <c r="P17" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
       <c r="Q17" t="s"/>
       <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
         <v>5</v>
@@ -2673,13 +3366,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
+        <v>183</v>
+      </c>
+      <c r="X17" t="s">
         <v>184</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>185</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="18">
@@ -2695,7 +3388,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2704,45 +3397,43 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
+        <v>187</v>
+      </c>
+      <c r="J18" t="s">
         <v>188</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>189</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>190</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
         <v>191</v>
       </c>
-      <c r="M18" t="n">
-        <v>5</v>
-      </c>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
-      <c r="R18" t="n">
-        <v>3</v>
-      </c>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>192</v>
+      </c>
+      <c r="X18" t="s">
+        <v>193</v>
+      </c>
       <c r="Y18" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19">
@@ -2758,7 +3449,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2767,45 +3458,49 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="J19" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K19" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L19" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O19" t="s">
-        <v>81</v>
-      </c>
-      <c r="P19" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
       <c r="Q19" t="s"/>
-      <c r="R19" t="n">
-        <v>3</v>
-      </c>
+      <c r="R19" t="s"/>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>201</v>
+      </c>
+      <c r="X19" t="s">
+        <v>202</v>
+      </c>
       <c r="Y19" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20">
@@ -2821,7 +3516,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2830,39 +3525,49 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="J20" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K20" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="L20" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="O20" t="s">
-        <v>81</v>
-      </c>
-      <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
       <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>210</v>
+      </c>
+      <c r="X20" t="s">
+        <v>211</v>
+      </c>
       <c r="Y20" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21">
@@ -2878,7 +3583,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2887,47 +3592,49 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="J21" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="K21" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="L21" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="O21" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="n">
-        <v>1</v>
-      </c>
-      <c r="S21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="X21" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="Y21" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22">
@@ -2943,7 +3650,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2952,49 +3659,47 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="J22" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="K22" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="L22" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>227</v>
+      </c>
+      <c r="O22" t="s">
+        <v>63</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
         <v>4</v>
       </c>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
-      <c r="P22" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="X22" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="Y22" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23">
@@ -3010,7 +3715,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3019,53 +3724,49 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="J23" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="K23" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="L23" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O23" t="s">
-        <v>108</v>
-      </c>
-      <c r="P23" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P23" t="s"/>
       <c r="Q23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R23" t="n">
         <v>3</v>
       </c>
-      <c r="S23" t="n">
-        <v>4</v>
-      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="X23" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="Y23" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24">
@@ -3081,7 +3782,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3090,22 +3791,22 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="J24" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="K24" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="L24" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="O24" t="s">
         <v>53</v>
@@ -3120,13 +3821,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="X24" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="Y24" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25">
@@ -3142,7 +3843,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3151,49 +3852,47 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="J25" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="K25" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="L25" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="O25" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="P25" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
-      <c r="R25" t="n">
-        <v>4</v>
-      </c>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>252</v>
+      </c>
+      <c r="X25" t="s">
+        <v>253</v>
+      </c>
       <c r="Y25" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26">
@@ -3209,7 +3908,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3218,49 +3917,49 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="J26" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="K26" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="L26" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>260</v>
+      </c>
+      <c r="O26" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
         <v>4</v>
-      </c>
-      <c r="N26" t="s">
-        <v>250</v>
-      </c>
-      <c r="O26" t="s">
-        <v>81</v>
-      </c>
-      <c r="P26" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>3</v>
-      </c>
-      <c r="R26" t="n">
-        <v>4</v>
-      </c>
-      <c r="S26" t="n">
-        <v>3</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>261</v>
+      </c>
+      <c r="X26" t="s">
+        <v>262</v>
+      </c>
       <c r="Y26" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27">
@@ -3276,7 +3975,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3285,49 +3984,47 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="J27" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="K27" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="L27" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="O27" t="s">
-        <v>81</v>
-      </c>
-      <c r="P27" t="n">
-        <v>3</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P27" t="s"/>
       <c r="Q27" t="n">
-        <v>3</v>
-      </c>
-      <c r="R27" t="n">
-        <v>4</v>
-      </c>
-      <c r="S27" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>269</v>
+      </c>
+      <c r="X27" t="s">
+        <v>270</v>
+      </c>
       <c r="Y27" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28">
@@ -3343,7 +4040,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3352,49 +4049,47 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="J28" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="K28" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="L28" t="s">
+        <v>276</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
         <v>260</v>
-      </c>
-      <c r="M28" t="n">
-        <v>4</v>
-      </c>
-      <c r="N28" t="s">
-        <v>261</v>
       </c>
       <c r="O28" t="s">
         <v>53</v>
       </c>
       <c r="P28" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>4</v>
-      </c>
-      <c r="R28" t="n">
-        <v>3</v>
-      </c>
-      <c r="S28" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>277</v>
+      </c>
+      <c r="X28" t="s">
+        <v>278</v>
+      </c>
       <c r="Y28" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29">
@@ -3410,7 +4105,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3419,32 +4114,28 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="J29" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="K29" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="L29" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>244</v>
+        <v>285</v>
       </c>
       <c r="O29" t="s">
-        <v>81</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
       <c r="R29" t="n">
         <v>5</v>
       </c>
@@ -3458,10 +4149,14 @@
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>286</v>
+      </c>
+      <c r="X29" t="s">
+        <v>287</v>
+      </c>
       <c r="Y29" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30">
@@ -3477,7 +4172,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3486,26 +4181,22 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="J30" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="K30" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="L30" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
-      <c r="N30" t="s">
-        <v>272</v>
-      </c>
-      <c r="O30" t="s">
-        <v>81</v>
-      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
       <c r="P30" t="n">
         <v>5</v>
       </c>
@@ -3513,7 +4204,7 @@
         <v>5</v>
       </c>
       <c r="R30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -3525,14 +4216,10 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>273</v>
-      </c>
-      <c r="X30" t="s">
-        <v>274</v>
-      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31">
@@ -3548,7 +4235,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3557,53 +4244,45 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="J31" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="K31" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="L31" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="O31" t="s">
-        <v>81</v>
-      </c>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
       <c r="R31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
-        <v>281</v>
-      </c>
-      <c r="X31" t="s">
-        <v>282</v>
-      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32">
@@ -3619,7 +4298,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3628,53 +4307,49 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="J32" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="K32" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="L32" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
-      </c>
-      <c r="N32" t="s">
-        <v>289</v>
-      </c>
-      <c r="O32" t="s">
-        <v>108</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
       <c r="P32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="X32" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="Y32" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33">
@@ -3690,7 +4365,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3699,53 +4374,49 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="J33" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="K33" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="L33" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
-      </c>
-      <c r="N33" t="s">
-        <v>289</v>
-      </c>
-      <c r="O33" t="s">
-        <v>108</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
       <c r="P33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="X33" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="Y33" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34">
@@ -3761,7 +4432,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3770,53 +4441,39 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="J34" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="K34" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="L34" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>272</v>
+        <v>322</v>
       </c>
       <c r="O34" t="s">
-        <v>108</v>
-      </c>
-      <c r="P34" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>5</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s">
-        <v>306</v>
-      </c>
-      <c r="X34" t="s">
-        <v>307</v>
-      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35">
@@ -3832,7 +4489,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3841,49 +4498,47 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J35" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="K35" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="L35" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
-      </c>
-      <c r="N35" t="s"/>
-      <c r="O35" t="s"/>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>322</v>
+      </c>
+      <c r="O35" t="s">
+        <v>63</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
       <c r="R35" t="n">
-        <v>5</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="X35" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="Y35" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36">
@@ -3899,7 +4554,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3908,28 +4563,24 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="J36" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="K36" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="L36" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
-      </c>
-      <c r="N36" t="s">
-        <v>322</v>
-      </c>
-      <c r="O36" t="s">
-        <v>81</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
       <c r="P36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q36" t="n">
         <v>5</v>
@@ -3948,13 +4599,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="X36" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="Y36" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37">
@@ -3970,7 +4621,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3979,53 +4630,49 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="J37" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="K37" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="L37" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
-      </c>
-      <c r="N37" t="s">
-        <v>322</v>
-      </c>
-      <c r="O37" t="s">
-        <v>81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
       <c r="P37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R37" t="n">
         <v>5</v>
       </c>
       <c r="S37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="X37" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="Y37" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
     </row>
     <row r="38">
@@ -4041,7 +4688,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4050,53 +4697,53 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="J38" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="K38" t="s">
-        <v>337</v>
+        <v>50</v>
       </c>
       <c r="L38" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="O38" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
         <v>4</v>
       </c>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
       <c r="S38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="X38" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="Y38" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="39">
@@ -4112,7 +4759,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4121,37 +4768,37 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="J39" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="K39" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="L39" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="O39" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
       </c>
       <c r="Q39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
@@ -4161,13 +4808,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="X39" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="Y39" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
     <row r="40">
@@ -4183,7 +4830,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4192,53 +4839,43 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="J40" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="K40" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="L40" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
-      </c>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>5</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="X40" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="Y40" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
     </row>
     <row r="41">
@@ -4254,7 +4891,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4263,37 +4900,37 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="J41" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="K41" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="L41" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>377</v>
+      </c>
+      <c r="O41" t="s">
+        <v>63</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
         <v>4</v>
       </c>
-      <c r="N41" t="s">
-        <v>366</v>
-      </c>
-      <c r="O41" t="s">
-        <v>81</v>
-      </c>
-      <c r="P41" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>4</v>
-      </c>
-      <c r="R41" t="n">
-        <v>3</v>
-      </c>
       <c r="S41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
@@ -4302,14 +4939,1944 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s">
-        <v>367</v>
-      </c>
-      <c r="X41" t="s">
-        <v>368</v>
-      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>369</v>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>378</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>379</v>
+      </c>
+      <c r="J42" t="s">
+        <v>380</v>
+      </c>
+      <c r="K42" t="s">
+        <v>381</v>
+      </c>
+      <c r="L42" t="s">
+        <v>382</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>383</v>
+      </c>
+      <c r="O42" t="s">
+        <v>73</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>384</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>385</v>
+      </c>
+      <c r="J43" t="s">
+        <v>386</v>
+      </c>
+      <c r="K43" t="s">
+        <v>387</v>
+      </c>
+      <c r="L43" t="s">
+        <v>388</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>389</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>390</v>
+      </c>
+      <c r="X43" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>393</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>394</v>
+      </c>
+      <c r="J44" t="s">
+        <v>395</v>
+      </c>
+      <c r="K44" t="s">
+        <v>396</v>
+      </c>
+      <c r="L44" t="s">
+        <v>397</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>398</v>
+      </c>
+      <c r="O44" t="s">
+        <v>63</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>399</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>400</v>
+      </c>
+      <c r="J45" t="s">
+        <v>401</v>
+      </c>
+      <c r="K45" t="s">
+        <v>402</v>
+      </c>
+      <c r="L45" t="s">
+        <v>403</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>398</v>
+      </c>
+      <c r="O45" t="s">
+        <v>63</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>404</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>405</v>
+      </c>
+      <c r="J46" t="s">
+        <v>406</v>
+      </c>
+      <c r="K46" t="s">
+        <v>407</v>
+      </c>
+      <c r="L46" t="s">
+        <v>408</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>409</v>
+      </c>
+      <c r="O46" t="s">
+        <v>73</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>410</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>411</v>
+      </c>
+      <c r="J47" t="s">
+        <v>412</v>
+      </c>
+      <c r="K47" t="s">
+        <v>413</v>
+      </c>
+      <c r="L47" t="s">
+        <v>414</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>415</v>
+      </c>
+      <c r="O47" t="s">
+        <v>63</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>416</v>
+      </c>
+      <c r="X47" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>419</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>420</v>
+      </c>
+      <c r="J48" t="s">
+        <v>421</v>
+      </c>
+      <c r="K48" t="s">
+        <v>422</v>
+      </c>
+      <c r="L48" t="s">
+        <v>423</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>424</v>
+      </c>
+      <c r="O48" t="s">
+        <v>63</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>426</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>427</v>
+      </c>
+      <c r="J49" t="s">
+        <v>428</v>
+      </c>
+      <c r="K49" t="s">
+        <v>429</v>
+      </c>
+      <c r="L49" t="s">
+        <v>430</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>377</v>
+      </c>
+      <c r="O49" t="s">
+        <v>63</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>431</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>432</v>
+      </c>
+      <c r="J50" t="s">
+        <v>433</v>
+      </c>
+      <c r="K50" t="s">
+        <v>434</v>
+      </c>
+      <c r="L50" t="s">
+        <v>435</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>436</v>
+      </c>
+      <c r="O50" t="s">
+        <v>63</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>437</v>
+      </c>
+      <c r="X50" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>440</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>441</v>
+      </c>
+      <c r="J51" t="s">
+        <v>442</v>
+      </c>
+      <c r="K51" t="s">
+        <v>443</v>
+      </c>
+      <c r="L51" t="s">
+        <v>444</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>409</v>
+      </c>
+      <c r="O51" t="s">
+        <v>63</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>445</v>
+      </c>
+      <c r="X51" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>448</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>449</v>
+      </c>
+      <c r="J52" t="s">
+        <v>450</v>
+      </c>
+      <c r="K52" t="s">
+        <v>451</v>
+      </c>
+      <c r="L52" t="s">
+        <v>452</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>453</v>
+      </c>
+      <c r="X52" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>456</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>457</v>
+      </c>
+      <c r="J53" t="s">
+        <v>458</v>
+      </c>
+      <c r="K53" t="s">
+        <v>459</v>
+      </c>
+      <c r="L53" t="s">
+        <v>460</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>461</v>
+      </c>
+      <c r="O53" t="s">
+        <v>73</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>462</v>
+      </c>
+      <c r="X53" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>465</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>466</v>
+      </c>
+      <c r="J54" t="s">
+        <v>467</v>
+      </c>
+      <c r="K54" t="s">
+        <v>468</v>
+      </c>
+      <c r="L54" t="s">
+        <v>469</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>461</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>470</v>
+      </c>
+      <c r="X54" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>473</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>474</v>
+      </c>
+      <c r="J55" t="s">
+        <v>475</v>
+      </c>
+      <c r="K55" t="s">
+        <v>476</v>
+      </c>
+      <c r="L55" t="s">
+        <v>477</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>461</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>478</v>
+      </c>
+      <c r="X55" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>481</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>482</v>
+      </c>
+      <c r="J56" t="s">
+        <v>483</v>
+      </c>
+      <c r="K56" t="s">
+        <v>484</v>
+      </c>
+      <c r="L56" t="s">
+        <v>485</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>436</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>486</v>
+      </c>
+      <c r="X56" t="s">
+        <v>487</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>489</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>490</v>
+      </c>
+      <c r="J57" t="s">
+        <v>491</v>
+      </c>
+      <c r="K57" t="s">
+        <v>492</v>
+      </c>
+      <c r="L57" t="s">
+        <v>493</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>436</v>
+      </c>
+      <c r="O57" t="s">
+        <v>63</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>494</v>
+      </c>
+      <c r="X57" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>497</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>498</v>
+      </c>
+      <c r="J58" t="s">
+        <v>499</v>
+      </c>
+      <c r="K58" t="s">
+        <v>500</v>
+      </c>
+      <c r="L58" t="s">
+        <v>501</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>502</v>
+      </c>
+      <c r="X58" t="s">
+        <v>503</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>505</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>506</v>
+      </c>
+      <c r="J59" t="s">
+        <v>499</v>
+      </c>
+      <c r="K59" t="s">
+        <v>507</v>
+      </c>
+      <c r="L59" t="s">
+        <v>508</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>509</v>
+      </c>
+      <c r="X59" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>512</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>513</v>
+      </c>
+      <c r="J60" t="s">
+        <v>514</v>
+      </c>
+      <c r="K60" t="s">
+        <v>515</v>
+      </c>
+      <c r="L60" t="s">
+        <v>516</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>517</v>
+      </c>
+      <c r="O60" t="s">
+        <v>63</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>518</v>
+      </c>
+      <c r="X60" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>521</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>522</v>
+      </c>
+      <c r="J61" t="s">
+        <v>523</v>
+      </c>
+      <c r="K61" t="s">
+        <v>524</v>
+      </c>
+      <c r="L61" t="s">
+        <v>525</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>517</v>
+      </c>
+      <c r="O61" t="s">
+        <v>63</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>526</v>
+      </c>
+      <c r="X61" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>529</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>530</v>
+      </c>
+      <c r="J62" t="s">
+        <v>531</v>
+      </c>
+      <c r="K62" t="s">
+        <v>532</v>
+      </c>
+      <c r="L62" t="s">
+        <v>533</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>517</v>
+      </c>
+      <c r="O62" t="s">
+        <v>73</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>534</v>
+      </c>
+      <c r="X62" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>537</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>538</v>
+      </c>
+      <c r="J63" t="s">
+        <v>539</v>
+      </c>
+      <c r="K63" t="s">
+        <v>540</v>
+      </c>
+      <c r="L63" t="s">
+        <v>541</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>542</v>
+      </c>
+      <c r="O63" t="s">
+        <v>73</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>543</v>
+      </c>
+      <c r="X63" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>546</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>547</v>
+      </c>
+      <c r="J64" t="s">
+        <v>548</v>
+      </c>
+      <c r="K64" t="s">
+        <v>549</v>
+      </c>
+      <c r="L64" t="s">
+        <v>550</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>551</v>
+      </c>
+      <c r="O64" t="s">
+        <v>63</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>552</v>
+      </c>
+      <c r="X64" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>555</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>556</v>
+      </c>
+      <c r="J65" t="s">
+        <v>557</v>
+      </c>
+      <c r="K65" t="s">
+        <v>558</v>
+      </c>
+      <c r="L65" t="s">
+        <v>559</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>560</v>
+      </c>
+      <c r="O65" t="s">
+        <v>63</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>561</v>
+      </c>
+      <c r="X65" t="s">
+        <v>562</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>564</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>565</v>
+      </c>
+      <c r="J66" t="s">
+        <v>566</v>
+      </c>
+      <c r="K66" t="s">
+        <v>567</v>
+      </c>
+      <c r="L66" t="s">
+        <v>568</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>569</v>
+      </c>
+      <c r="O66" t="s">
+        <v>73</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>570</v>
+      </c>
+      <c r="X66" t="s">
+        <v>571</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>573</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>574</v>
+      </c>
+      <c r="J67" t="s">
+        <v>575</v>
+      </c>
+      <c r="K67" t="s">
+        <v>576</v>
+      </c>
+      <c r="L67" t="s">
+        <v>577</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>578</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>579</v>
+      </c>
+      <c r="X67" t="s">
+        <v>580</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>582</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>583</v>
+      </c>
+      <c r="J68" t="s">
+        <v>584</v>
+      </c>
+      <c r="K68" t="s">
+        <v>585</v>
+      </c>
+      <c r="L68" t="s">
+        <v>586</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>542</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>587</v>
+      </c>
+      <c r="X68" t="s">
+        <v>588</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>36805</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>590</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>591</v>
+      </c>
+      <c r="J69" t="s">
+        <v>592</v>
+      </c>
+      <c r="K69" t="s">
+        <v>593</v>
+      </c>
+      <c r="L69" t="s">
+        <v>594</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>595</v>
+      </c>
+      <c r="O69" t="s">
+        <v>63</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>596</v>
+      </c>
+      <c r="X69" t="s">
+        <v>597</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>598</v>
       </c>
     </row>
   </sheetData>
